--- a/data/HR1/A_KPC_35_2/A_KPC_35_2_2030.xlsx
+++ b/data/HR1/A_KPC_35_2/A_KPC_35_2_2030.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\HR1\A_KPC_35_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C8964B5-5780-4DF5-8B5D-3D39F63C61DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF2D183A-0D7B-428A-BDB2-EE2CDF03B7C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-12645" windowWidth="38640" windowHeight="21240" tabRatio="722" firstSheet="23" activeTab="34" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="67080" yWindow="-12390" windowWidth="29040" windowHeight="17640" tabRatio="722" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="19">
   <si>
     <t>numScenarios</t>
   </si>
@@ -13715,7 +13715,7 @@
       </c>
       <c r="B7" s="2">
         <f>SUM('RES installed'!$C$2:$C$7)</f>
-        <v>3.1</v>
+        <v>6.1899999999999995</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -13724,7 +13724,7 @@
       </c>
       <c r="B8" s="2">
         <f>SUM('ES installed'!$C$2:$C$7)</f>
-        <v>0</v>
+        <v>0.59000000000000008</v>
       </c>
     </row>
   </sheetData>
@@ -21616,7 +21616,7 @@
       </c>
       <c r="D8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!D$2</f>
-        <v>1.5680716832769496E-5</v>
+        <v>1.5994331169424887E-5</v>
       </c>
       <c r="E8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!E$2</f>
@@ -21636,55 +21636,55 @@
       </c>
       <c r="I8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!I$2</f>
-        <v>9.5351558928408135E-3</v>
+        <v>9.7258590106976302E-3</v>
       </c>
       <c r="J8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!J$2</f>
-        <v>0.18890239553808172</v>
+        <v>0.19268044344884336</v>
       </c>
       <c r="K8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!K$2</f>
-        <v>0.49290093261406231</v>
+        <v>0.50275895126634362</v>
       </c>
       <c r="L8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!L$2</f>
-        <v>0.61511611959403845</v>
+        <v>0.62741844198591923</v>
       </c>
       <c r="M8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!M$2</f>
-        <v>0.68321139252080076</v>
+        <v>0.69687562037121675</v>
       </c>
       <c r="N8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!N$2</f>
-        <v>0.69588141172167872</v>
+        <v>0.70979903995611227</v>
       </c>
       <c r="O8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!O$2</f>
-        <v>0.68310322757611763</v>
+        <v>0.69676529212764005</v>
       </c>
       <c r="P8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!P$2</f>
-        <v>0.58327338392612227</v>
+        <v>0.59493885160464477</v>
       </c>
       <c r="Q8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!Q$2</f>
-        <v>0.38544322026149763</v>
+        <v>0.39315208466672757</v>
       </c>
       <c r="R8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!R$2</f>
-        <v>9.4168304836792532E-2</v>
+        <v>9.6051670933528385E-2</v>
       </c>
       <c r="S8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!S$2</f>
-        <v>7.3603364725244585E-4</v>
+        <v>7.5075432019749478E-4</v>
       </c>
       <c r="T8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!T$2</f>
-        <v>6.3362896589558382E-5</v>
+        <v>6.4630154521349556E-5</v>
       </c>
       <c r="U8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!U$2</f>
-        <v>4.8482216329889367E-5</v>
+        <v>4.9451860656487157E-5</v>
       </c>
       <c r="V8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!V$2</f>
@@ -21717,7 +21717,7 @@
       </c>
       <c r="D9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!D$2</f>
-        <v>2.1168967724238821E-5</v>
+        <v>2.1325774892566515E-5</v>
       </c>
       <c r="E9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!E$2</f>
@@ -21737,55 +21737,55 @@
       </c>
       <c r="I9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!I$2</f>
-        <v>1.2872460455335098E-2</v>
+        <v>1.2967812014263507E-2</v>
       </c>
       <c r="J9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!J$2</f>
-        <v>0.25501823397641032</v>
+        <v>0.25690725793179114</v>
       </c>
       <c r="K9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!K$2</f>
-        <v>0.66541625902898416</v>
+        <v>0.67034526835512476</v>
       </c>
       <c r="L9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!L$2</f>
-        <v>0.83040676145195191</v>
+        <v>0.8365579226478923</v>
       </c>
       <c r="M9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!M$2</f>
-        <v>0.92233537990308112</v>
+        <v>0.92916749382828911</v>
       </c>
       <c r="N9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!N$2</f>
-        <v>0.93943990582426629</v>
+        <v>0.94639871994148317</v>
       </c>
       <c r="O9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!O$2</f>
-        <v>0.92218935722775885</v>
+        <v>0.92902038950352006</v>
       </c>
       <c r="P9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!P$2</f>
-        <v>0.78741906830026509</v>
+        <v>0.7932518021395264</v>
       </c>
       <c r="Q9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!Q$2</f>
-        <v>0.52034834735302182</v>
+        <v>0.52420277955563677</v>
       </c>
       <c r="R9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!R$2</f>
-        <v>0.12712721152966994</v>
+        <v>0.12806889457803786</v>
       </c>
       <c r="S9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!S$2</f>
-        <v>9.9364542379080196E-4</v>
+        <v>1.0010057602633264E-3</v>
       </c>
       <c r="T9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!T$2</f>
-        <v>8.5539910395903828E-5</v>
+        <v>8.6173539361799408E-5</v>
       </c>
       <c r="U9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!U$2</f>
-        <v>6.5450992045350644E-5</v>
+        <v>6.5935814208649543E-5</v>
       </c>
       <c r="V9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!V$2</f>
@@ -21818,7 +21818,7 @@
       </c>
       <c r="D10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!D$2</f>
-        <v>6.6643046539270358E-6</v>
+        <v>6.585901069763188E-6</v>
       </c>
       <c r="E10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!E$2</f>
@@ -21838,55 +21838,55 @@
       </c>
       <c r="I10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!I$2</f>
-        <v>4.0524412544573453E-3</v>
+        <v>4.0047654749931416E-3</v>
       </c>
       <c r="J10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!J$2</f>
-        <v>8.0283518103684726E-2</v>
+        <v>7.9339006125994316E-2</v>
       </c>
       <c r="K10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!K$2</f>
-        <v>0.20948289636097647</v>
+        <v>0.20701839169790617</v>
       </c>
       <c r="L10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!L$2</f>
-        <v>0.26142435082746635</v>
+        <v>0.25834877022949615</v>
       </c>
       <c r="M10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!M$2</f>
-        <v>0.29036484182134031</v>
+        <v>0.28694878485873632</v>
       </c>
       <c r="N10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!N$2</f>
-        <v>0.29574959998171346</v>
+        <v>0.29227019292310508</v>
       </c>
       <c r="O10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!O$2</f>
-        <v>0.29031887171984999</v>
+        <v>0.28690335558196939</v>
       </c>
       <c r="P10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!P$2</f>
-        <v>0.24789118816860195</v>
+        <v>0.24497482124897135</v>
       </c>
       <c r="Q10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!Q$2</f>
-        <v>0.16381336861113649</v>
+        <v>0.16188615250982899</v>
       </c>
       <c r="R10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!R$2</f>
-        <v>4.0021529555636828E-2</v>
+        <v>3.9550688031452862E-2</v>
       </c>
       <c r="S10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!S$2</f>
-        <v>3.1281430008228949E-4</v>
+        <v>3.0913413184602723E-4</v>
       </c>
       <c r="T10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!T$2</f>
-        <v>2.6929231050562312E-5</v>
+        <v>2.6612416567614518E-5</v>
       </c>
       <c r="U10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!U$2</f>
-        <v>2.0604941940202979E-5</v>
+        <v>2.0362530858553533E-5</v>
       </c>
       <c r="V10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!V$2</f>
@@ -21919,7 +21919,7 @@
       </c>
       <c r="D11" s="6">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!D$2</f>
-        <v>5.0962329706500863E-6</v>
+        <v>5.3157630063088596E-5</v>
       </c>
       <c r="E11" s="6">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!E$2</f>
@@ -21939,55 +21939,55 @@
       </c>
       <c r="I11" s="6">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!I$2</f>
-        <v>3.0989256651732643E-3</v>
+        <v>3.2324178476730359E-2</v>
       </c>
       <c r="J11" s="6">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!J$2</f>
-        <v>6.1393278549876563E-2</v>
+        <v>0.6403791208740971</v>
       </c>
       <c r="K11" s="6">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!K$2</f>
-        <v>0.16019280309957026</v>
+        <v>1.6709341615616713</v>
       </c>
       <c r="L11" s="6">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!L$2</f>
-        <v>0.19991273886806249</v>
+        <v>2.0852436454237906</v>
       </c>
       <c r="M11" s="6">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!M$2</f>
-        <v>0.22204370256926026</v>
+        <v>2.3160866206455148</v>
       </c>
       <c r="N11" s="6">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!N$2</f>
-        <v>0.22616145880954558</v>
+        <v>2.3590379857364909</v>
       </c>
       <c r="O11" s="6">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!O$2</f>
-        <v>0.22200854896223823</v>
+        <v>2.3157199414830387</v>
       </c>
       <c r="P11" s="6">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!P$2</f>
-        <v>0.18956384977598975</v>
+        <v>1.9772967715095546</v>
       </c>
       <c r="Q11" s="6">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!Q$2</f>
-        <v>0.12526904658498675</v>
+        <v>1.3066525166864771</v>
       </c>
       <c r="R11" s="6">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!R$2</f>
-        <v>3.0604699071957574E-2</v>
+        <v>0.31923055339672668</v>
       </c>
       <c r="S11" s="6">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!S$2</f>
-        <v>2.3921093535704492E-4</v>
+        <v>2.4951540641857915E-3</v>
       </c>
       <c r="T11" s="6">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!T$2</f>
-        <v>2.0592941391606475E-5</v>
+        <v>2.1480021943860291E-4</v>
       </c>
       <c r="U11" s="6">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!U$2</f>
-        <v>1.5756720307214045E-5</v>
+        <v>1.6435471335832496E-4</v>
       </c>
       <c r="V11" s="6">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!V$2</f>
@@ -22020,7 +22020,7 @@
       </c>
       <c r="D12" s="6">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!D$2</f>
-        <v>8.624394258023224E-6</v>
+        <v>9.3143457986650814E-5</v>
       </c>
       <c r="E12" s="6">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!E$2</f>
@@ -22040,55 +22040,55 @@
       </c>
       <c r="I12" s="6">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!I$2</f>
-        <v>5.2443357410624477E-3</v>
+        <v>5.6638826003474432E-2</v>
       </c>
       <c r="J12" s="6">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!J$2</f>
-        <v>0.10389631754594496</v>
+        <v>1.1220802294962056</v>
       </c>
       <c r="K12" s="6">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!K$2</f>
-        <v>0.27109551293773432</v>
+        <v>2.9278315397275305</v>
       </c>
       <c r="L12" s="6">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!L$2</f>
-        <v>0.33831386577672118</v>
+        <v>3.6537897503885888</v>
       </c>
       <c r="M12" s="6">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!M$2</f>
-        <v>0.37576626588644046</v>
+        <v>4.0582756715735568</v>
       </c>
       <c r="N12" s="6">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!N$2</f>
-        <v>0.38273477644692333</v>
+        <v>4.1335355856267721</v>
       </c>
       <c r="O12" s="6">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!O$2</f>
-        <v>0.37570677516686474</v>
+        <v>4.0576331718021388</v>
       </c>
       <c r="P12" s="6">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!P$2</f>
-        <v>0.32080036115936728</v>
+        <v>3.4646439005211667</v>
       </c>
       <c r="Q12" s="6">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!Q$2</f>
-        <v>0.21199377114382373</v>
+        <v>2.2895327283532962</v>
       </c>
       <c r="R12" s="6">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!R$2</f>
-        <v>5.1792567660235898E-2</v>
+        <v>0.55935973073054768</v>
       </c>
       <c r="S12" s="6">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!S$2</f>
-        <v>4.0481850598884526E-4</v>
+        <v>4.3720398646795288E-3</v>
       </c>
       <c r="T12" s="6">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!T$2</f>
-        <v>3.4849593124257111E-5</v>
+        <v>3.7637560574197684E-4</v>
       </c>
       <c r="U12" s="6">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!U$2</f>
-        <v>2.6665218981439155E-5</v>
+        <v>2.8798436499954288E-4</v>
       </c>
       <c r="V12" s="6">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!V$2</f>
@@ -22121,7 +22121,7 @@
       </c>
       <c r="D13" s="6">
         <f>VLOOKUP($A13,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!D$2</f>
-        <v>7.0563225747462738E-6</v>
+        <v>7.3228947609033543E-5</v>
       </c>
       <c r="E13" s="6">
         <f>VLOOKUP($A13,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!E$2</f>
@@ -22141,55 +22141,55 @@
       </c>
       <c r="I13" s="6">
         <f>VLOOKUP($A13,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!I$2</f>
-        <v>4.2908201517783658E-3</v>
+        <v>4.4529178019566601E-2</v>
       </c>
       <c r="J13" s="6">
         <f>VLOOKUP($A13,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!J$2</f>
-        <v>8.5006077992136775E-2</v>
+        <v>0.88217418716284157</v>
       </c>
       <c r="K13" s="6">
         <f>VLOOKUP($A13,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!K$2</f>
-        <v>0.22180541967632805</v>
+        <v>2.3018473553076708</v>
       </c>
       <c r="L13" s="6">
         <f>VLOOKUP($A13,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!L$2</f>
-        <v>0.27680225381731732</v>
+        <v>2.8725922785041593</v>
       </c>
       <c r="M13" s="6">
         <f>VLOOKUP($A13,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!M$2</f>
-        <v>0.30744512663436036</v>
+        <v>3.1905972030721395</v>
       </c>
       <c r="N13" s="6">
         <f>VLOOKUP($A13,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!N$2</f>
-        <v>0.31314663527475545</v>
+        <v>3.2497661927402395</v>
       </c>
       <c r="O13" s="6">
         <f>VLOOKUP($A13,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!O$2</f>
-        <v>0.30739645240925295</v>
+        <v>3.1900920727804691</v>
       </c>
       <c r="P13" s="6">
         <f>VLOOKUP($A13,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!P$2</f>
-        <v>0.26247302276675505</v>
+        <v>2.7238867029349909</v>
       </c>
       <c r="Q13" s="6">
         <f>VLOOKUP($A13,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!Q$2</f>
-        <v>0.17344944911767393</v>
+        <v>1.8000198386211939</v>
       </c>
       <c r="R13" s="6">
         <f>VLOOKUP($A13,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!R$2</f>
-        <v>4.2375737176556641E-2</v>
+        <v>0.4397659835878211</v>
       </c>
       <c r="S13" s="6">
         <f>VLOOKUP($A13,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!S$2</f>
-        <v>3.3121514126360064E-4</v>
+        <v>3.4372771326689222E-3</v>
       </c>
       <c r="T13" s="6">
         <f>VLOOKUP($A13,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!T$2</f>
-        <v>2.8513303465301271E-5</v>
+        <v>2.9590472707323765E-4</v>
       </c>
       <c r="U13" s="6">
         <f>VLOOKUP($A13,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!U$2</f>
-        <v>2.1816997348450215E-5</v>
+        <v>2.2641195026058334E-4</v>
       </c>
       <c r="V13" s="6">
         <f>VLOOKUP($A13,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!V$2</f>
@@ -22222,7 +22222,7 @@
       </c>
       <c r="D14" s="6">
         <f>VLOOKUP($A14,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!D$2</f>
-        <v>4.7042150498308483E-6</v>
+        <v>5.0491908201517783E-5</v>
       </c>
       <c r="E14" s="6">
         <f>VLOOKUP($A14,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!E$2</f>
@@ -22242,55 +22242,55 @@
       </c>
       <c r="I14" s="6">
         <f>VLOOKUP($A14,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!I$2</f>
-        <v>2.8605467678522439E-3</v>
+        <v>3.0703201974947421E-2</v>
       </c>
       <c r="J14" s="6">
         <f>VLOOKUP($A14,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!J$2</f>
-        <v>5.6670718661424514E-2</v>
+        <v>0.60826571363262316</v>
       </c>
       <c r="K14" s="6">
         <f>VLOOKUP($A14,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!K$2</f>
-        <v>0.14787027978421868</v>
+        <v>1.5871410030172808</v>
       </c>
       <c r="L14" s="6">
         <f>VLOOKUP($A14,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!L$2</f>
-        <v>0.18453483587821154</v>
+        <v>1.9806739050928039</v>
       </c>
       <c r="M14" s="6">
         <f>VLOOKUP($A14,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!M$2</f>
-        <v>0.20496341775624022</v>
+        <v>2.1999406839169784</v>
       </c>
       <c r="N14" s="6">
         <f>VLOOKUP($A14,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!N$2</f>
-        <v>0.20876442351650362</v>
+        <v>2.2407381457438058</v>
       </c>
       <c r="O14" s="6">
         <f>VLOOKUP($A14,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!O$2</f>
-        <v>0.20493096827283527</v>
+        <v>2.1995923927950991</v>
       </c>
       <c r="P14" s="6">
         <f>VLOOKUP($A14,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!P$2</f>
-        <v>0.17498201517783668</v>
+        <v>1.8781402962421139</v>
       </c>
       <c r="Q14" s="6">
         <f>VLOOKUP($A14,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!Q$2</f>
-        <v>0.11563296607844928</v>
+        <v>1.2411271692420225</v>
       </c>
       <c r="R14" s="6">
         <f>VLOOKUP($A14,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!R$2</f>
-        <v>2.8250491451037758E-2</v>
+        <v>0.30322194157447196</v>
       </c>
       <c r="S14" s="6">
         <f>VLOOKUP($A14,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!S$2</f>
-        <v>2.2081009417573375E-4</v>
+        <v>2.3700283441528756E-3</v>
       </c>
       <c r="T14" s="6">
         <f>VLOOKUP($A14,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!T$2</f>
-        <v>1.9008868976867515E-5</v>
+        <v>2.04028527018378E-4</v>
       </c>
       <c r="U14" s="6">
         <f>VLOOKUP($A14,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!U$2</f>
-        <v>1.4544664898966809E-5</v>
+        <v>1.5611273658224377E-4</v>
       </c>
       <c r="V14" s="6">
         <f>VLOOKUP($A14,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!V$2</f>
@@ -22323,7 +22323,7 @@
       </c>
       <c r="D15" s="6">
         <f>VLOOKUP($A15,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!D$2</f>
-        <v>1.960089604096187E-6</v>
+        <v>2.2109810734204988E-5</v>
       </c>
       <c r="E15" s="6">
         <f>VLOOKUP($A15,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!E$2</f>
@@ -22343,55 +22343,55 @@
       </c>
       <c r="I15" s="6">
         <f>VLOOKUP($A15,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!I$2</f>
-        <v>1.1918944866051017E-3</v>
+        <v>1.3444569808905547E-2</v>
       </c>
       <c r="J15" s="6">
         <f>VLOOKUP($A15,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!J$2</f>
-        <v>2.3612799442260215E-2</v>
+        <v>0.26635237770869519</v>
       </c>
       <c r="K15" s="6">
         <f>VLOOKUP($A15,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!K$2</f>
-        <v>6.1612616576757789E-2</v>
+        <v>0.69499031498582786</v>
       </c>
       <c r="L15" s="6">
         <f>VLOOKUP($A15,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!L$2</f>
-        <v>7.6889514949254806E-2</v>
+        <v>0.86731372862759415</v>
       </c>
       <c r="M15" s="6">
         <f>VLOOKUP($A15,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!M$2</f>
-        <v>8.5401424065100096E-2</v>
+        <v>0.96332806345432898</v>
       </c>
       <c r="N15" s="6">
         <f>VLOOKUP($A15,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!N$2</f>
-        <v>8.698517646520984E-2</v>
+        <v>0.98119279052756692</v>
       </c>
       <c r="O15" s="6">
         <f>VLOOKUP($A15,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!O$2</f>
-        <v>8.5387903447014704E-2</v>
+        <v>0.96317555088232576</v>
       </c>
       <c r="P15" s="6">
         <f>VLOOKUP($A15,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!P$2</f>
-        <v>7.2909172990765284E-2</v>
+        <v>0.82241547133583237</v>
       </c>
       <c r="Q15" s="6">
         <f>VLOOKUP($A15,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!Q$2</f>
-        <v>4.8180402532687204E-2</v>
+        <v>0.5434749405687116</v>
       </c>
       <c r="R15" s="6">
         <f>VLOOKUP($A15,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!R$2</f>
-        <v>1.1771038104599067E-2</v>
+        <v>0.13277730981987745</v>
       </c>
       <c r="S15" s="6">
         <f>VLOOKUP($A15,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!S$2</f>
-        <v>9.2004205906555731E-5</v>
+        <v>1.0378074426259487E-3</v>
       </c>
       <c r="T15" s="6">
         <f>VLOOKUP($A15,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!T$2</f>
-        <v>7.9203620736947978E-6</v>
+        <v>8.9341684191277321E-5</v>
       </c>
       <c r="U15" s="6">
         <f>VLOOKUP($A15,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!U$2</f>
-        <v>6.0602770412361709E-6</v>
+        <v>6.8359925025144008E-5</v>
       </c>
       <c r="V15" s="6">
         <f>VLOOKUP($A15,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!V$2</f>
@@ -23023,7 +23023,7 @@
       </c>
       <c r="C8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!C$3</f>
-        <v>2.7254098360655734E-5</v>
+        <v>2.7799180327868851E-5</v>
       </c>
       <c r="D8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!D$3</f>
@@ -23047,51 +23047,51 @@
       </c>
       <c r="I8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!I$3</f>
-        <v>7.6400409836065563E-3</v>
+        <v>7.7928418032786875E-3</v>
       </c>
       <c r="J8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!J$3</f>
-        <v>0.15037377049180325</v>
+        <v>0.15338124590163932</v>
       </c>
       <c r="K8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!K$3</f>
-        <v>0.35771721311475413</v>
+        <v>0.36487155737704924</v>
       </c>
       <c r="L8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!L$3</f>
-        <v>0.48138081967213114</v>
+        <v>0.49100843606557376</v>
       </c>
       <c r="M8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!M$3</f>
-        <v>0.59039606557377045</v>
+        <v>0.6022039868852459</v>
       </c>
       <c r="N8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!N$3</f>
-        <v>0.70114180327868847</v>
+        <v>0.71516463934426222</v>
       </c>
       <c r="O8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!O$3</f>
-        <v>0.585118237704918</v>
+        <v>0.59682060245901636</v>
       </c>
       <c r="P8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!P$3</f>
-        <v>0.42994487704918033</v>
+        <v>0.43854377459016397</v>
       </c>
       <c r="Q8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!Q$3</f>
-        <v>0.20624983606557376</v>
+        <v>0.21037483278688524</v>
       </c>
       <c r="R8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!R$3</f>
-        <v>4.3088729508196713E-2</v>
+        <v>4.3950504098360647E-2</v>
       </c>
       <c r="S8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!S$3</f>
-        <v>2.7540983606557371E-4</v>
+        <v>2.809180327868852E-4</v>
       </c>
       <c r="T8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!T$3</f>
-        <v>1.2049180327868852E-4</v>
+        <v>1.2290163934426229E-4</v>
       </c>
       <c r="U8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!U$3</f>
@@ -23124,7 +23124,7 @@
       </c>
       <c r="C9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!C$3</f>
-        <v>3.6793032786885245E-5</v>
+        <v>3.7065573770491803E-5</v>
       </c>
       <c r="D9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!D$3</f>
@@ -23148,51 +23148,51 @@
       </c>
       <c r="I9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!I$3</f>
-        <v>1.0314055327868851E-2</v>
+        <v>1.0390455737704918E-2</v>
       </c>
       <c r="J9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!J$3</f>
-        <v>0.20300459016393441</v>
+        <v>0.20450832786885245</v>
       </c>
       <c r="K9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!K$3</f>
-        <v>0.4829182377049181</v>
+        <v>0.48649540983606565</v>
       </c>
       <c r="L9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!L$3</f>
-        <v>0.64986410655737714</v>
+        <v>0.65467791475409842</v>
       </c>
       <c r="M9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!M$3</f>
-        <v>0.79703468852459014</v>
+        <v>0.80293864918032787</v>
       </c>
       <c r="N9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!N$3</f>
-        <v>0.94654143442622951</v>
+        <v>0.95355285245901633</v>
       </c>
       <c r="O9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!O$3</f>
-        <v>0.7899096209016393</v>
+        <v>0.79576080327868859</v>
       </c>
       <c r="P9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!P$3</f>
-        <v>0.58042558401639344</v>
+        <v>0.58472503278688526</v>
       </c>
       <c r="Q9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!Q$3</f>
-        <v>0.27843727868852458</v>
+        <v>0.28049977704918033</v>
       </c>
       <c r="R9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!R$3</f>
-        <v>5.8169784836065566E-2</v>
+        <v>5.8600672131147537E-2</v>
       </c>
       <c r="S9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!S$3</f>
-        <v>3.7180327868852455E-4</v>
+        <v>3.7455737704918026E-4</v>
       </c>
       <c r="T9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!T$3</f>
-        <v>1.6266393442622952E-4</v>
+        <v>1.6386885245901639E-4</v>
       </c>
       <c r="U9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!U$3</f>
@@ -23225,7 +23225,7 @@
       </c>
       <c r="C10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!C$3</f>
-        <v>1.1582991803278687E-5</v>
+        <v>1.1446721311475408E-5</v>
       </c>
       <c r="D10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!D$3</f>
@@ -23249,51 +23249,51 @@
       </c>
       <c r="I10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!I$3</f>
-        <v>3.2470174180327864E-3</v>
+        <v>3.2088172131147534E-3</v>
       </c>
       <c r="J10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!J$3</f>
-        <v>6.3908852459016383E-2</v>
+        <v>6.315698360655736E-2</v>
       </c>
       <c r="K10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!K$3</f>
-        <v>0.15202981557377049</v>
+        <v>0.15024122950819674</v>
       </c>
       <c r="L10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!L$3</f>
-        <v>0.20458684836065574</v>
+        <v>0.20217994426229507</v>
       </c>
       <c r="M10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!M$3</f>
-        <v>0.25091832786885243</v>
+        <v>0.24796634754098357</v>
       </c>
       <c r="N10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!N$3</f>
-        <v>0.29798526639344258</v>
+        <v>0.29447955737704917</v>
       </c>
       <c r="O10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!O$3</f>
-        <v>0.24867525102459015</v>
+        <v>0.24574965983606556</v>
       </c>
       <c r="P10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!P$3</f>
-        <v>0.18272657274590162</v>
+        <v>0.18057684836065574</v>
       </c>
       <c r="Q10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!Q$3</f>
-        <v>8.7656180327868843E-2</v>
+        <v>8.6624931147540982E-2</v>
       </c>
       <c r="R10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!R$3</f>
-        <v>1.8312710040983601E-2</v>
+        <v>1.809726639344262E-2</v>
       </c>
       <c r="S10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!S$3</f>
-        <v>1.1704918032786882E-4</v>
+        <v>1.1567213114754096E-4</v>
       </c>
       <c r="T10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!T$3</f>
-        <v>5.1209016393442617E-5</v>
+        <v>5.0606557377049174E-5</v>
       </c>
       <c r="U10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!U$3</f>
@@ -23326,7 +23326,7 @@
       </c>
       <c r="C11" s="6">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!C$3</f>
-        <v>8.8575819672131135E-6</v>
+        <v>9.239139344262294E-5</v>
       </c>
       <c r="D11" s="6">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!D$3</f>
@@ -23350,51 +23350,51 @@
       </c>
       <c r="I11" s="6">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!I$3</f>
-        <v>2.4830133196721308E-3</v>
+        <v>2.5899738934426226E-2</v>
       </c>
       <c r="J11" s="6">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!J$3</f>
-        <v>4.8871475409836058E-2</v>
+        <v>0.5097670819672131</v>
       </c>
       <c r="K11" s="6">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!K$3</f>
-        <v>0.11625809426229509</v>
+        <v>1.2126613524590166</v>
       </c>
       <c r="L11" s="6">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!L$3</f>
-        <v>0.15644876639344263</v>
+        <v>1.6318809786885247</v>
       </c>
       <c r="M11" s="6">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!M$3</f>
-        <v>0.1918787213114754</v>
+        <v>2.0014426622950818</v>
       </c>
       <c r="N11" s="6">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!N$3</f>
-        <v>0.22787108606557377</v>
+        <v>2.3768707131147542</v>
       </c>
       <c r="O11" s="6">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!O$3</f>
-        <v>0.19016342725409835</v>
+        <v>1.9835508258196721</v>
       </c>
       <c r="P11" s="6">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!P$3</f>
-        <v>0.13973208504098361</v>
+        <v>1.4575131331967213</v>
       </c>
       <c r="Q11" s="6">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!Q$3</f>
-        <v>6.703119672131147E-2</v>
+        <v>0.69918694426229511</v>
       </c>
       <c r="R11" s="6">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!R$3</f>
-        <v>1.4003837090163932E-2</v>
+        <v>0.14607079303278686</v>
       </c>
       <c r="S11" s="6">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!S$3</f>
-        <v>8.9508196721311466E-5</v>
+        <v>9.3363934426229488E-4</v>
       </c>
       <c r="T11" s="6">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!T$3</f>
-        <v>3.915983606557377E-5</v>
+        <v>4.0846721311475407E-4</v>
       </c>
       <c r="U11" s="6">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!U$3</f>
@@ -23427,7 +23427,7 @@
       </c>
       <c r="C12" s="6">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!C$3</f>
-        <v>1.4989754098360655E-5</v>
+        <v>1.6188934426229507E-4</v>
       </c>
       <c r="D12" s="6">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!D$3</f>
@@ -23451,51 +23451,51 @@
       </c>
       <c r="I12" s="6">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!I$3</f>
-        <v>4.2020225409836066E-3</v>
+        <v>4.538184344262295E-2</v>
       </c>
       <c r="J12" s="6">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!J$3</f>
-        <v>8.27055737704918E-2</v>
+        <v>0.89322019672131137</v>
       </c>
       <c r="K12" s="6">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!K$3</f>
-        <v>0.19674446721311478</v>
+        <v>2.1248402459016398</v>
       </c>
       <c r="L12" s="6">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!L$3</f>
-        <v>0.26475945081967217</v>
+        <v>2.8594020688524591</v>
       </c>
       <c r="M12" s="6">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!M$3</f>
-        <v>0.32471783606557375</v>
+        <v>3.5069526295081968</v>
       </c>
       <c r="N12" s="6">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!N$3</f>
-        <v>0.38562799180327867</v>
+        <v>4.1647823114754097</v>
       </c>
       <c r="O12" s="6">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!O$3</f>
-        <v>0.3218150307377049</v>
+        <v>3.4756023319672131</v>
       </c>
       <c r="P12" s="6">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!P$3</f>
-        <v>0.23646968237704921</v>
+        <v>2.5538725696721314</v>
       </c>
       <c r="Q12" s="6">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!Q$3</f>
-        <v>0.11343740983606558</v>
+        <v>1.2251240262295082</v>
       </c>
       <c r="R12" s="6">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!R$3</f>
-        <v>2.3698801229508196E-2</v>
+        <v>0.2559470532786885</v>
       </c>
       <c r="S12" s="6">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!S$3</f>
-        <v>1.5147540983606557E-4</v>
+        <v>1.635934426229508E-3</v>
       </c>
       <c r="T12" s="6">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!T$3</f>
-        <v>6.6270491803278685E-5</v>
+        <v>7.1572131147540981E-4</v>
       </c>
       <c r="U12" s="6">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!U$3</f>
@@ -23528,7 +23528,7 @@
       </c>
       <c r="C13" s="6">
         <f>VLOOKUP($A13,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!C$3</f>
-        <v>1.2264344262295081E-5</v>
+        <v>1.2727663934426227E-4</v>
       </c>
       <c r="D13" s="6">
         <f>VLOOKUP($A13,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!D$3</f>
@@ -23552,51 +23552,51 @@
       </c>
       <c r="I13" s="6">
         <f>VLOOKUP($A13,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!I$3</f>
-        <v>3.4380184426229506E-3</v>
+        <v>3.5678991393442619E-2</v>
       </c>
       <c r="J13" s="6">
         <f>VLOOKUP($A13,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!J$3</f>
-        <v>6.7668196721311469E-2</v>
+        <v>0.70224550819672116</v>
       </c>
       <c r="K13" s="6">
         <f>VLOOKUP($A13,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!K$3</f>
-        <v>0.16097274590163937</v>
+        <v>1.6705393852459018</v>
       </c>
       <c r="L13" s="6">
         <f>VLOOKUP($A13,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!L$3</f>
-        <v>0.21662136885245903</v>
+        <v>2.2480484278688526</v>
       </c>
       <c r="M13" s="6">
         <f>VLOOKUP($A13,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!M$3</f>
-        <v>0.26567822950819669</v>
+        <v>2.7571496262295079</v>
       </c>
       <c r="N13" s="6">
         <f>VLOOKUP($A13,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!N$3</f>
-        <v>0.3155138114754098</v>
+        <v>3.2743322213114752</v>
       </c>
       <c r="O13" s="6">
         <f>VLOOKUP($A13,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!O$3</f>
-        <v>0.2633032069672131</v>
+        <v>2.7325021700819669</v>
       </c>
       <c r="P13" s="6">
         <f>VLOOKUP($A13,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!P$3</f>
-        <v>0.19347519467213115</v>
+        <v>2.0078425758196721</v>
       </c>
       <c r="Q13" s="6">
         <f>VLOOKUP($A13,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!Q$3</f>
-        <v>9.2812426229508194E-2</v>
+        <v>0.96318673442622948</v>
       </c>
       <c r="R13" s="6">
         <f>VLOOKUP($A13,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!R$3</f>
-        <v>1.9389928278688521E-2</v>
+        <v>0.20122436680327865</v>
       </c>
       <c r="S13" s="6">
         <f>VLOOKUP($A13,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!S$3</f>
-        <v>1.2393442622950817E-4</v>
+        <v>1.2861639344262292E-3</v>
       </c>
       <c r="T13" s="6">
         <f>VLOOKUP($A13,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!T$3</f>
-        <v>5.4221311475409831E-5</v>
+        <v>5.626967213114754E-4</v>
       </c>
       <c r="U13" s="6">
         <f>VLOOKUP($A13,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!U$3</f>
@@ -23629,7 +23629,7 @@
       </c>
       <c r="C14" s="6">
         <f>VLOOKUP($A14,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!C$3</f>
-        <v>8.1762295081967197E-6</v>
+        <v>8.7758196721311464E-5</v>
       </c>
       <c r="D14" s="6">
         <f>VLOOKUP($A14,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!D$3</f>
@@ -23653,51 +23653,51 @@
       </c>
       <c r="I14" s="6">
         <f>VLOOKUP($A14,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!I$3</f>
-        <v>2.2920122950819666E-3</v>
+        <v>2.4600931967213111E-2</v>
       </c>
       <c r="J14" s="6">
         <f>VLOOKUP($A14,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!J$3</f>
-        <v>4.5112131147540972E-2</v>
+        <v>0.48420354098360652</v>
       </c>
       <c r="K14" s="6">
         <f>VLOOKUP($A14,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!K$3</f>
-        <v>0.10731516393442624</v>
+        <v>1.1518494262295083</v>
       </c>
       <c r="L14" s="6">
         <f>VLOOKUP($A14,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!L$3</f>
-        <v>0.14441424590163934</v>
+        <v>1.5500462393442624</v>
       </c>
       <c r="M14" s="6">
         <f>VLOOKUP($A14,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!M$3</f>
-        <v>0.17711881967213114</v>
+        <v>1.901075331147541</v>
       </c>
       <c r="N14" s="6">
         <f>VLOOKUP($A14,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!N$3</f>
-        <v>0.21034254098360652</v>
+        <v>2.2576766065573768</v>
       </c>
       <c r="O14" s="6">
         <f>VLOOKUP($A14,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!O$3</f>
-        <v>0.1755354713114754</v>
+        <v>1.8840807254098362</v>
       </c>
       <c r="P14" s="6">
         <f>VLOOKUP($A14,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!P$3</f>
-        <v>0.12898346311475409</v>
+        <v>1.3844225040983607</v>
       </c>
       <c r="Q14" s="6">
         <f>VLOOKUP($A14,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!Q$3</f>
-        <v>6.1874950819672127E-2</v>
+        <v>0.66412447213114756</v>
       </c>
       <c r="R14" s="6">
         <f>VLOOKUP($A14,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!R$3</f>
-        <v>1.2926618852459014E-2</v>
+        <v>0.13874570901639344</v>
       </c>
       <c r="S14" s="6">
         <f>VLOOKUP($A14,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!S$3</f>
-        <v>8.2622950819672111E-5</v>
+        <v>8.8681967213114746E-4</v>
       </c>
       <c r="T14" s="6">
         <f>VLOOKUP($A14,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!T$3</f>
-        <v>3.6147540983606556E-5</v>
+        <v>3.8798360655737703E-4</v>
       </c>
       <c r="U14" s="6">
         <f>VLOOKUP($A14,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!U$3</f>
@@ -23730,7 +23730,7 @@
       </c>
       <c r="C15" s="6">
         <f>VLOOKUP($A15,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!C$3</f>
-        <v>3.4067622950819668E-6</v>
+        <v>3.8428278688524581E-5</v>
       </c>
       <c r="D15" s="6">
         <f>VLOOKUP($A15,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!D$3</f>
@@ -23754,51 +23754,51 @@
       </c>
       <c r="I15" s="6">
         <f>VLOOKUP($A15,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!I$3</f>
-        <v>9.5500512295081954E-4</v>
+        <v>1.0772457786885244E-2</v>
       </c>
       <c r="J15" s="6">
         <f>VLOOKUP($A15,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!J$3</f>
-        <v>1.8796721311475407E-2</v>
+        <v>0.21202701639344257</v>
       </c>
       <c r="K15" s="6">
         <f>VLOOKUP($A15,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!K$3</f>
-        <v>4.4714651639344266E-2</v>
+        <v>0.50438127049180326</v>
       </c>
       <c r="L15" s="6">
         <f>VLOOKUP($A15,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!L$3</f>
-        <v>6.0172602459016393E-2</v>
+        <v>0.67874695573770483</v>
       </c>
       <c r="M15" s="6">
         <f>VLOOKUP($A15,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!M$3</f>
-        <v>7.3799508196721306E-2</v>
+        <v>0.83245845245901628</v>
       </c>
       <c r="N15" s="6">
         <f>VLOOKUP($A15,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!N$3</f>
-        <v>8.7642725409836059E-2</v>
+        <v>0.98860994262295065</v>
       </c>
       <c r="O15" s="6">
         <f>VLOOKUP($A15,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!O$3</f>
-        <v>7.313977971311475E-2</v>
+        <v>0.82501671516393438</v>
       </c>
       <c r="P15" s="6">
         <f>VLOOKUP($A15,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!P$3</f>
-        <v>5.3743109631147541E-2</v>
+        <v>0.60622227663934425</v>
       </c>
       <c r="Q15" s="6">
         <f>VLOOKUP($A15,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!Q$3</f>
-        <v>2.578122950819672E-2</v>
+        <v>0.29081226885245898</v>
       </c>
       <c r="R15" s="6">
         <f>VLOOKUP($A15,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!R$3</f>
-        <v>5.3860911885245891E-3</v>
+        <v>6.0755108606557362E-2</v>
       </c>
       <c r="S15" s="6">
         <f>VLOOKUP($A15,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!S$3</f>
-        <v>3.4426229508196714E-5</v>
+        <v>3.8832786885245889E-4</v>
       </c>
       <c r="T15" s="6">
         <f>VLOOKUP($A15,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!T$3</f>
-        <v>1.5061475409836064E-5</v>
+        <v>1.698934426229508E-4</v>
       </c>
       <c r="U15" s="6">
         <f>VLOOKUP($A15,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!U$3</f>
@@ -24458,47 +24458,47 @@
       </c>
       <c r="I8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!I$4</f>
-        <v>8.260566945077194E-3</v>
+        <v>8.4257782839787382E-3</v>
       </c>
       <c r="J8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!J$4</f>
-        <v>0.18037822703113135</v>
+        <v>0.18398579157175399</v>
       </c>
       <c r="K8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!K$4</f>
-        <v>0.41995460010124014</v>
+        <v>0.42835369210326496</v>
       </c>
       <c r="L8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!L$4</f>
-        <v>0.60561693242217163</v>
+        <v>0.61772927107061504</v>
       </c>
       <c r="M8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!M$4</f>
-        <v>0.62344801948873685</v>
+        <v>0.63591697987851159</v>
       </c>
       <c r="N8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!N$4</f>
-        <v>0.59197370918754733</v>
+        <v>0.6038131833712983</v>
       </c>
       <c r="O8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!O$4</f>
-        <v>0.46347538597823329</v>
+        <v>0.47274489369779799</v>
       </c>
       <c r="P8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!P$4</f>
-        <v>0.35702126044039478</v>
+        <v>0.3641616856492027</v>
       </c>
       <c r="Q8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!Q$4</f>
-        <v>0.15148949633004302</v>
+        <v>0.15451928625664388</v>
       </c>
       <c r="R8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!R$4</f>
-        <v>2.6744969627942289E-2</v>
+        <v>2.7279869020501134E-2</v>
       </c>
       <c r="S8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!S$4</f>
-        <v>4.34067324727917E-5</v>
+        <v>4.4274867122247537E-5</v>
       </c>
       <c r="T8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!T$4</f>
@@ -24559,47 +24559,47 @@
       </c>
       <c r="I9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!I$4</f>
-        <v>1.1151765375854213E-2</v>
+        <v>1.1234371045304985E-2</v>
       </c>
       <c r="J9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!J$4</f>
-        <v>0.24351060649202733</v>
+        <v>0.24531438876233866</v>
       </c>
       <c r="K9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!K$4</f>
-        <v>0.56693871013667418</v>
+        <v>0.57113825613768665</v>
       </c>
       <c r="L9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!L$4</f>
-        <v>0.81758285876993175</v>
+        <v>0.82363902809415346</v>
       </c>
       <c r="M9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!M$4</f>
-        <v>0.84165482630979482</v>
+        <v>0.84788930650468219</v>
       </c>
       <c r="N9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!N$4</f>
-        <v>0.7991645074031889</v>
+        <v>0.80508424449506444</v>
       </c>
       <c r="O9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!O$4</f>
-        <v>0.62569177107061502</v>
+        <v>0.63032652493039731</v>
       </c>
       <c r="P9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!P$4</f>
-        <v>0.48197870159453299</v>
+        <v>0.48554891419893692</v>
       </c>
       <c r="Q9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!Q$4</f>
-        <v>0.20451082004555809</v>
+        <v>0.20602571500885852</v>
       </c>
       <c r="R9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!R$4</f>
-        <v>3.6105708997722093E-2</v>
+        <v>3.6373158694001519E-2</v>
       </c>
       <c r="S9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!S$4</f>
-        <v>5.8599088838268799E-5</v>
+        <v>5.9033156162996714E-5</v>
       </c>
       <c r="T9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!T$4</f>
@@ -24660,47 +24660,47 @@
       </c>
       <c r="I10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!I$4</f>
-        <v>3.5107409516578073E-3</v>
+        <v>3.4694381169324212E-3</v>
       </c>
       <c r="J10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!J$4</f>
-        <v>7.6660746488230819E-2</v>
+        <v>7.5758855353075166E-2</v>
       </c>
       <c r="K10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!K$4</f>
-        <v>0.17848070504302704</v>
+        <v>0.17638093204252084</v>
       </c>
       <c r="L10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!L$4</f>
-        <v>0.25738719627942291</v>
+        <v>0.25435911161731206</v>
       </c>
       <c r="M10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!M$4</f>
-        <v>0.26496540828271314</v>
+        <v>0.26184816818526946</v>
       </c>
       <c r="N10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!N$4</f>
-        <v>0.25158882640470759</v>
+        <v>0.24862895785876987</v>
       </c>
       <c r="O10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!O$4</f>
-        <v>0.19697703904074915</v>
+        <v>0.19465966211085797</v>
       </c>
       <c r="P10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!P$4</f>
-        <v>0.15173403568716778</v>
+        <v>0.14994892938496579</v>
       </c>
       <c r="Q10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!Q$4</f>
-        <v>6.4383035940268285E-2</v>
+        <v>6.3625588458618071E-2</v>
       </c>
       <c r="R10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!R$4</f>
-        <v>1.1366612091875472E-2</v>
+        <v>1.1232887243735761E-2</v>
       </c>
       <c r="S10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!S$4</f>
-        <v>1.8447861300936471E-5</v>
+        <v>1.8230827638572513E-5</v>
       </c>
       <c r="T10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!T$4</f>
@@ -24761,47 +24761,47 @@
       </c>
       <c r="I11" s="6">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!I$4</f>
-        <v>2.6846842571500882E-3</v>
+        <v>2.800332194381169E-2</v>
       </c>
       <c r="J11" s="6">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!J$4</f>
-        <v>5.8622923785117693E-2</v>
+        <v>0.61148218963553524</v>
       </c>
       <c r="K11" s="6">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!K$4</f>
-        <v>0.13648524503290305</v>
+        <v>1.4236460943432041</v>
       </c>
       <c r="L11" s="6">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!L$4</f>
-        <v>0.19682550303720578</v>
+        <v>2.0530414009111619</v>
       </c>
       <c r="M11" s="6">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!M$4</f>
-        <v>0.20262060633383949</v>
+        <v>2.1134887860668181</v>
       </c>
       <c r="N11" s="6">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!N$4</f>
-        <v>0.19239145548595288</v>
+        <v>2.0067908741457856</v>
       </c>
       <c r="O11" s="6">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!O$4</f>
-        <v>0.15062950044292583</v>
+        <v>1.571181558466211</v>
       </c>
       <c r="P11" s="6">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!P$4</f>
-        <v>0.1160319096431283</v>
+        <v>1.2103020728929383</v>
       </c>
       <c r="Q11" s="6">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!Q$4</f>
-        <v>4.9234086307263981E-2</v>
+        <v>0.51354939255884591</v>
       </c>
       <c r="R11" s="6">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!R$4</f>
-        <v>8.6921151290812442E-3</v>
+        <v>9.0665447038724367E-2</v>
       </c>
       <c r="S11" s="6">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!S$4</f>
-        <v>1.4107188053657303E-5</v>
+        <v>1.4714882308276386E-4</v>
       </c>
       <c r="T11" s="6">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!T$4</f>
@@ -24862,47 +24862,47 @@
       </c>
       <c r="I12" s="6">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!I$4</f>
-        <v>4.5433118197924574E-3</v>
+        <v>4.9067767653758539E-2</v>
       </c>
       <c r="J12" s="6">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!J$4</f>
-        <v>9.9208024867122255E-2</v>
+        <v>1.0714466685649202</v>
       </c>
       <c r="K12" s="6">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!K$4</f>
-        <v>0.2309750300556821</v>
+        <v>2.4945303246013664</v>
       </c>
       <c r="L12" s="6">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!L$4</f>
-        <v>0.3330893128321944</v>
+        <v>3.5973645785876998</v>
       </c>
       <c r="M12" s="6">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!M$4</f>
-        <v>0.34289641071880528</v>
+        <v>3.7032812357630971</v>
       </c>
       <c r="N12" s="6">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!N$4</f>
-        <v>0.32558554005315105</v>
+        <v>3.5163238325740314</v>
       </c>
       <c r="O12" s="6">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!O$4</f>
-        <v>0.25491146228802836</v>
+        <v>2.7530437927107059</v>
       </c>
       <c r="P12" s="6">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!P$4</f>
-        <v>0.19636169324221714</v>
+        <v>2.120706287015945</v>
       </c>
       <c r="Q12" s="6">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!Q$4</f>
-        <v>8.3319222981523666E-2</v>
+        <v>0.89984760820045562</v>
       </c>
       <c r="R12" s="6">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!R$4</f>
-        <v>1.470973329536826E-2</v>
+        <v>0.15886511958997721</v>
       </c>
       <c r="S12" s="6">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!S$4</f>
-        <v>2.3873702860035439E-5</v>
+        <v>2.5783599088838273E-4</v>
       </c>
       <c r="T12" s="6">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!T$4</f>
@@ -24963,47 +24963,47 @@
       </c>
       <c r="I13" s="6">
         <f>VLOOKUP($A13,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!I$4</f>
-        <v>3.7172551252847375E-3</v>
+        <v>3.8576847633510498E-2</v>
       </c>
       <c r="J13" s="6">
         <f>VLOOKUP($A13,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!J$4</f>
-        <v>8.1170202164009109E-2</v>
+        <v>0.84236632023538338</v>
       </c>
       <c r="K13" s="6">
         <f>VLOOKUP($A13,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!K$4</f>
-        <v>0.18897957004555807</v>
+        <v>1.9611879824727914</v>
       </c>
       <c r="L13" s="6">
         <f>VLOOKUP($A13,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!L$4</f>
-        <v>0.27252761958997723</v>
+        <v>2.8282310744115415</v>
       </c>
       <c r="M13" s="6">
         <f>VLOOKUP($A13,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!M$4</f>
-        <v>0.28055160876993157</v>
+        <v>2.9115022510124011</v>
       </c>
       <c r="N13" s="6">
         <f>VLOOKUP($A13,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!N$4</f>
-        <v>0.26638816913439628</v>
+        <v>2.7645172219058458</v>
       </c>
       <c r="O13" s="6">
         <f>VLOOKUP($A13,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!O$4</f>
-        <v>0.20856392369020499</v>
+        <v>2.1644300525183495</v>
       </c>
       <c r="P13" s="6">
         <f>VLOOKUP($A13,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!P$4</f>
-        <v>0.16065956719817764</v>
+        <v>1.6672892862566435</v>
       </c>
       <c r="Q13" s="6">
         <f>VLOOKUP($A13,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!Q$4</f>
-        <v>6.8170273348519356E-2</v>
+        <v>0.70745594786130095</v>
       </c>
       <c r="R13" s="6">
         <f>VLOOKUP($A13,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!R$4</f>
-        <v>1.203523633257403E-2</v>
+        <v>0.12489900816249049</v>
       </c>
       <c r="S13" s="6">
         <f>VLOOKUP($A13,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!S$4</f>
-        <v>1.9533029612756265E-5</v>
+        <v>2.0270944064793725E-4</v>
       </c>
       <c r="T13" s="6">
         <f>VLOOKUP($A13,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!T$4</f>
@@ -25064,47 +25064,47 @@
       </c>
       <c r="I14" s="6">
         <f>VLOOKUP($A14,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!I$4</f>
-        <v>2.478170083523158E-3</v>
+        <v>2.6599025563148568E-2</v>
       </c>
       <c r="J14" s="6">
         <f>VLOOKUP($A14,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!J$4</f>
-        <v>5.4113468109339403E-2</v>
+        <v>0.58081789104024295</v>
       </c>
       <c r="K14" s="6">
         <f>VLOOKUP($A14,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!K$4</f>
-        <v>0.12598638003037205</v>
+        <v>1.3522538123259933</v>
       </c>
       <c r="L14" s="6">
         <f>VLOOKUP($A14,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!L$4</f>
-        <v>0.18168507972665149</v>
+        <v>1.9500865223993928</v>
       </c>
       <c r="M14" s="6">
         <f>VLOOKUP($A14,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!M$4</f>
-        <v>0.18703440584662104</v>
+        <v>2.0075026227537327</v>
       </c>
       <c r="N14" s="6">
         <f>VLOOKUP($A14,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!N$4</f>
-        <v>0.17759211275626419</v>
+        <v>1.9061553435839025</v>
       </c>
       <c r="O14" s="6">
         <f>VLOOKUP($A14,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!O$4</f>
-        <v>0.13904261579346999</v>
+        <v>1.4923907428499112</v>
       </c>
       <c r="P14" s="6">
         <f>VLOOKUP($A14,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!P$4</f>
-        <v>0.10710637813211843</v>
+        <v>1.1496084586180713</v>
       </c>
       <c r="Q14" s="6">
         <f>VLOOKUP($A14,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!Q$4</f>
-        <v>4.5446848899012904E-2</v>
+        <v>0.48779617818273857</v>
       </c>
       <c r="R14" s="6">
         <f>VLOOKUP($A14,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!R$4</f>
-        <v>8.0234908883826863E-3</v>
+        <v>8.6118802201974182E-2</v>
       </c>
       <c r="S14" s="6">
         <f>VLOOKUP($A14,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!S$4</f>
-        <v>1.302201974183751E-5</v>
+        <v>1.3976967856238928E-4</v>
       </c>
       <c r="T14" s="6">
         <f>VLOOKUP($A14,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!T$4</f>
@@ -25165,47 +25165,47 @@
       </c>
       <c r="I15" s="6">
         <f>VLOOKUP($A15,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!I$4</f>
-        <v>1.0325708681346493E-3</v>
+        <v>1.1647399392558842E-2</v>
       </c>
       <c r="J15" s="6">
         <f>VLOOKUP($A15,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!J$4</f>
-        <v>2.2547278378891419E-2</v>
+        <v>0.25433330011389521</v>
       </c>
       <c r="K15" s="6">
         <f>VLOOKUP($A15,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!K$4</f>
-        <v>5.2494325012655017E-2</v>
+        <v>0.59213598614274854</v>
       </c>
       <c r="L15" s="6">
         <f>VLOOKUP($A15,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!L$4</f>
-        <v>7.5702116552771453E-2</v>
+        <v>0.85391987471526198</v>
       </c>
       <c r="M15" s="6">
         <f>VLOOKUP($A15,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!M$4</f>
-        <v>7.7931002436092106E-2</v>
+        <v>0.87906170747911894</v>
       </c>
       <c r="N15" s="6">
         <f>VLOOKUP($A15,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!N$4</f>
-        <v>7.3996713648443416E-2</v>
+        <v>0.83468292995444171</v>
       </c>
       <c r="O15" s="6">
         <f>VLOOKUP($A15,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!O$4</f>
-        <v>5.7934423247279161E-2</v>
+        <v>0.65350029422930889</v>
       </c>
       <c r="P15" s="6">
         <f>VLOOKUP($A15,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!P$4</f>
-        <v>4.4627657555049348E-2</v>
+        <v>0.50339997722095664</v>
       </c>
       <c r="Q15" s="6">
         <f>VLOOKUP($A15,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!Q$4</f>
-        <v>1.8936187041255378E-2</v>
+        <v>0.21360018982536064</v>
       </c>
       <c r="R15" s="6">
         <f>VLOOKUP($A15,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!R$4</f>
-        <v>3.3431212034927861E-3</v>
+        <v>3.7710407175398628E-2</v>
       </c>
       <c r="S15" s="6">
         <f>VLOOKUP($A15,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!S$4</f>
-        <v>5.4258415590989625E-6</v>
+        <v>6.1203492786636289E-5</v>
       </c>
       <c r="T15" s="6">
         <f>VLOOKUP($A15,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Winter'!T$4</f>
@@ -28756,7 +28756,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28805,7 +28805,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="8">
-        <v>1</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -28816,7 +28816,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="8">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -28827,7 +28827,7 @@
         <v>20</v>
       </c>
       <c r="C6" s="8">
-        <v>0.42499999999999999</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -28838,7 +28838,7 @@
         <v>22</v>
       </c>
       <c r="C7" s="8">
-        <v>0.32500000000000001</v>
+        <v>3.39</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -28849,7 +28849,7 @@
         <v>24</v>
       </c>
       <c r="C8" s="8">
-        <v>0.55000000000000004</v>
+        <v>5.94</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -28860,7 +28860,7 @@
         <v>26</v>
       </c>
       <c r="C9" s="8">
-        <v>0.45</v>
+        <v>4.67</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -28871,7 +28871,7 @@
         <v>28</v>
       </c>
       <c r="C10" s="8">
-        <v>0.3</v>
+        <v>3.22</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -28882,7 +28882,7 @@
         <v>30</v>
       </c>
       <c r="C11" s="8">
-        <v>0.125</v>
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>
@@ -45839,7 +45839,7 @@
       </c>
       <c r="D8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!D$2</f>
-        <v>1.9757703209289567E-5</v>
+        <v>2.0152857273475358E-5</v>
       </c>
       <c r="E8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!E$2</f>
@@ -45859,55 +45859,55 @@
       </c>
       <c r="I8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!I$2</f>
-        <v>1.1537538630337385E-2</v>
+        <v>1.1768289402944132E-2</v>
       </c>
       <c r="J8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!J$2</f>
-        <v>0.23990604233336377</v>
+        <v>0.24470416318003105</v>
       </c>
       <c r="K8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!K$2</f>
-        <v>0.63584220307214034</v>
+        <v>0.64855904713358314</v>
       </c>
       <c r="L8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!L$2</f>
-        <v>0.79965095547225007</v>
+        <v>0.81564397458169513</v>
       </c>
       <c r="M8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!M$2</f>
-        <v>0.82668578495016887</v>
+        <v>0.84321950064917228</v>
       </c>
       <c r="N8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!N$2</f>
-        <v>0.90464583523818232</v>
+        <v>0.92273875194294597</v>
       </c>
       <c r="O8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!O$2</f>
-        <v>0.88120316357319173</v>
+        <v>0.89882722684465555</v>
       </c>
       <c r="P8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!P$2</f>
-        <v>0.7407571975861752</v>
+        <v>0.75557234153789876</v>
       </c>
       <c r="Q8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!Q$2</f>
-        <v>0.47409516092164211</v>
+        <v>0.48357706414007495</v>
       </c>
       <c r="R8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!R$2</f>
-        <v>0.11865206409435858</v>
+        <v>0.12102510537624575</v>
       </c>
       <c r="S8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!S$2</f>
-        <v>9.274023955380818E-4</v>
+        <v>9.4595044344884349E-4</v>
       </c>
       <c r="T8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!T$2</f>
-        <v>7.8569991771052395E-5</v>
+        <v>8.0141391606473449E-5</v>
       </c>
       <c r="U8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!U$2</f>
-        <v>5.8663481759166133E-5</v>
+        <v>5.9836751394349459E-5</v>
       </c>
       <c r="V8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!V$2</f>
@@ -45940,7 +45940,7 @@
       </c>
       <c r="D9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!D$2</f>
-        <v>2.6672899332540918E-5</v>
+        <v>2.6870476364633813E-5</v>
       </c>
       <c r="E9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!E$2</f>
@@ -45960,55 +45960,55 @@
       </c>
       <c r="I9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!I$2</f>
-        <v>1.557567715095547E-2</v>
+        <v>1.5691052537258846E-2</v>
       </c>
       <c r="J9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!J$2</f>
-        <v>0.32387315715004111</v>
+        <v>0.32627221757337477</v>
       </c>
       <c r="K9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!K$2</f>
-        <v>0.85838697414738951</v>
+        <v>0.86474539617811097</v>
       </c>
       <c r="L9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!L$2</f>
-        <v>1.0795287898875376</v>
+        <v>1.0875252994422602</v>
       </c>
       <c r="M9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!M$2</f>
-        <v>1.116025809682728</v>
+        <v>1.1242926675322298</v>
       </c>
       <c r="N9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!N$2</f>
-        <v>1.2212718775715463</v>
+        <v>1.230318335923928</v>
       </c>
       <c r="O9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!O$2</f>
-        <v>1.1896242708238089</v>
+        <v>1.1984363024595408</v>
       </c>
       <c r="P9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!P$2</f>
-        <v>1.0000222167413366</v>
+        <v>1.0074297887171983</v>
       </c>
       <c r="Q9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!Q$2</f>
-        <v>0.64002846724421691</v>
+        <v>0.64476941885343331</v>
       </c>
       <c r="R9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!R$2</f>
-        <v>0.16018028652738409</v>
+        <v>0.16136680716832769</v>
       </c>
       <c r="S9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!S$2</f>
-        <v>1.2519932339764106E-3</v>
+        <v>1.2612672579317913E-3</v>
       </c>
       <c r="T9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!T$2</f>
-        <v>1.0606948889092074E-4</v>
+        <v>1.0685518880863127E-4</v>
       </c>
       <c r="U9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!U$2</f>
-        <v>7.9195700374874283E-5</v>
+        <v>7.9782335192465949E-5</v>
       </c>
       <c r="V9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!V$2</f>
@@ -46041,7 +46041,7 @@
       </c>
       <c r="D10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!D$2</f>
-        <v>8.3970238639480654E-6</v>
+        <v>8.2982353479016175E-6</v>
       </c>
       <c r="E10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!E$2</f>
@@ -46061,55 +46061,55 @@
       </c>
       <c r="I10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!I$2</f>
-        <v>4.9034539178933884E-3</v>
+        <v>4.8457662247417014E-3</v>
       </c>
       <c r="J10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!J$2</f>
-        <v>0.1019600679916796</v>
+        <v>0.10076053778001277</v>
       </c>
       <c r="K10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!K$2</f>
-        <v>0.27023293630565964</v>
+        <v>0.26705372529029892</v>
       </c>
       <c r="L10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!L$2</f>
-        <v>0.33985165607570628</v>
+        <v>0.33585340129834501</v>
       </c>
       <c r="M10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!M$2</f>
-        <v>0.35134145860382177</v>
+        <v>0.34720802967907088</v>
       </c>
       <c r="N10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!N$2</f>
-        <v>0.38447447997622747</v>
+        <v>0.37995125080003656</v>
       </c>
       <c r="O10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!O$2</f>
-        <v>0.37451134451860646</v>
+        <v>0.37010532870074053</v>
       </c>
       <c r="P10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!P$2</f>
-        <v>0.31482180897412443</v>
+        <v>0.31111802298619357</v>
       </c>
       <c r="Q10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!Q$2</f>
-        <v>0.20149044339169789</v>
+        <v>0.19911996758708969</v>
       </c>
       <c r="R10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!R$2</f>
-        <v>5.0427127240102392E-2</v>
+        <v>4.9833866919630598E-2</v>
       </c>
       <c r="S10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!S$2</f>
-        <v>3.9414601810368473E-4</v>
+        <v>3.8950900612599437E-4</v>
       </c>
       <c r="T10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!T$2</f>
-        <v>3.3392246502697264E-5</v>
+        <v>3.2999396543842007E-5</v>
       </c>
       <c r="U10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!U$2</f>
-        <v>2.4931979747645605E-5</v>
+        <v>2.4638662338849775E-5</v>
       </c>
       <c r="V10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!V$2</f>
@@ -46142,7 +46142,7 @@
       </c>
       <c r="D11" s="6">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!D$2</f>
-        <v>6.4212535430191095E-6</v>
+        <v>6.6978613879491628E-5</v>
       </c>
       <c r="E11" s="6">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!E$2</f>
@@ -46162,55 +46162,55 @@
       </c>
       <c r="I11" s="6">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!I$2</f>
-        <v>3.7497000548596502E-3</v>
+        <v>3.9112255956843735E-2</v>
       </c>
       <c r="J11" s="6">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!J$2</f>
-        <v>7.7969463758343224E-2</v>
+        <v>0.81328148351010321</v>
       </c>
       <c r="K11" s="6">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!K$2</f>
-        <v>0.20664871599844561</v>
+        <v>2.155505068414556</v>
       </c>
       <c r="L11" s="6">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!L$2</f>
-        <v>0.2598865605284813</v>
+        <v>2.7108167390509279</v>
       </c>
       <c r="M11" s="6">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!M$2</f>
-        <v>0.26867288010880491</v>
+        <v>2.8024648109810726</v>
       </c>
       <c r="N11" s="6">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!N$2</f>
-        <v>0.29400989645240927</v>
+        <v>3.0667493814574383</v>
       </c>
       <c r="O11" s="6">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!O$2</f>
-        <v>0.28639102816128731</v>
+        <v>2.98727872451312</v>
       </c>
       <c r="P11" s="6">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!P$2</f>
-        <v>0.24074608921550694</v>
+        <v>2.5111668998171339</v>
       </c>
       <c r="Q11" s="6">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!Q$2</f>
-        <v>0.15408092729953368</v>
+        <v>1.6071825955243668</v>
       </c>
       <c r="R11" s="6">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!R$2</f>
-        <v>3.8561920830666542E-2</v>
+        <v>0.40223049727987559</v>
       </c>
       <c r="S11" s="6">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!S$2</f>
-        <v>3.0140577854987662E-4</v>
+        <v>3.1438941208740976E-3</v>
       </c>
       <c r="T11" s="6">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!T$2</f>
-        <v>2.5535247325592029E-5</v>
+        <v>2.6635227210386762E-4</v>
       </c>
       <c r="U11" s="6">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!U$2</f>
-        <v>1.9065631571728995E-5</v>
+        <v>1.9886920316357319E-4</v>
       </c>
       <c r="V11" s="6">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!V$2</f>
@@ -46243,7 +46243,7 @@
       </c>
       <c r="D12" s="6">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!D$2</f>
-        <v>1.0866736765109263E-5</v>
+        <v>1.1736075706318004E-4</v>
       </c>
       <c r="E12" s="6">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!E$2</f>
@@ -46263,55 +46263,55 @@
       </c>
       <c r="I12" s="6">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!I$2</f>
-        <v>6.3456462466855617E-3</v>
+        <v>6.8532979464204072E-2</v>
       </c>
       <c r="J12" s="6">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!J$2</f>
-        <v>0.13194832328335007</v>
+        <v>1.4250418914601808</v>
       </c>
       <c r="K12" s="6">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!K$2</f>
-        <v>0.34971321168967723</v>
+        <v>3.7769026862485138</v>
       </c>
       <c r="L12" s="6">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!L$2</f>
-        <v>0.43980802550973758</v>
+        <v>4.7499266755051659</v>
       </c>
       <c r="M12" s="6">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!M$2</f>
-        <v>0.45467718172259292</v>
+        <v>4.9105135626040033</v>
       </c>
       <c r="N12" s="6">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!N$2</f>
-        <v>0.49755520938100034</v>
+        <v>5.3735962613148036</v>
       </c>
       <c r="O12" s="6">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!O$2</f>
-        <v>0.48466173996525547</v>
+        <v>5.234346791624759</v>
       </c>
       <c r="P12" s="6">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!P$2</f>
-        <v>0.4074164586723964</v>
+        <v>4.4000977536618811</v>
       </c>
       <c r="Q12" s="6">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!Q$2</f>
-        <v>0.26075233850690316</v>
+        <v>2.8161252558745544</v>
       </c>
       <c r="R12" s="6">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!R$2</f>
-        <v>6.5258635251897221E-2</v>
+        <v>0.70479326072048998</v>
       </c>
       <c r="S12" s="6">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!S$2</f>
-        <v>5.1007131754594501E-4</v>
+        <v>5.5087702294962064E-3</v>
       </c>
       <c r="T12" s="6">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!T$2</f>
-        <v>4.321349547407882E-5</v>
+        <v>4.6670575112005123E-4</v>
       </c>
       <c r="U12" s="6">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!U$2</f>
-        <v>3.2264914967541377E-5</v>
+        <v>3.4846108164944686E-4</v>
       </c>
       <c r="V12" s="6">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!V$2</f>
@@ -46344,7 +46344,7 @@
       </c>
       <c r="D13" s="6">
         <f>VLOOKUP($A13,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!D$2</f>
-        <v>8.8909664441803053E-6</v>
+        <v>9.226847398738228E-5</v>
       </c>
       <c r="E13" s="6">
         <f>VLOOKUP($A13,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!E$2</f>
@@ -46364,55 +46364,55 @@
       </c>
       <c r="I13" s="6">
         <f>VLOOKUP($A13,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!I$2</f>
-        <v>5.191892383651823E-3</v>
+        <v>5.3880305403675582E-2</v>
       </c>
       <c r="J13" s="6">
         <f>VLOOKUP($A13,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!J$2</f>
-        <v>0.1079577190500137</v>
+        <v>1.1203612176968087</v>
       </c>
       <c r="K13" s="6">
         <f>VLOOKUP($A13,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!K$2</f>
-        <v>0.28612899138246317</v>
+        <v>2.9693830883468952</v>
       </c>
       <c r="L13" s="6">
         <f>VLOOKUP($A13,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!L$2</f>
-        <v>0.35984292996251255</v>
+        <v>3.7343699620554078</v>
       </c>
       <c r="M13" s="6">
         <f>VLOOKUP($A13,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!M$2</f>
-        <v>0.37200860322757601</v>
+        <v>3.8606226157172885</v>
       </c>
       <c r="N13" s="6">
         <f>VLOOKUP($A13,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!N$2</f>
-        <v>0.40709062585718203</v>
+        <v>4.2246960505623115</v>
       </c>
       <c r="O13" s="6">
         <f>VLOOKUP($A13,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!O$2</f>
-        <v>0.39654142360793626</v>
+        <v>4.1152187738868049</v>
       </c>
       <c r="P13" s="6">
         <f>VLOOKUP($A13,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!P$2</f>
-        <v>0.33334073891377886</v>
+        <v>3.459336112727438</v>
       </c>
       <c r="Q13" s="6">
         <f>VLOOKUP($A13,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!Q$2</f>
-        <v>0.21334282241473895</v>
+        <v>2.2140244015040684</v>
       </c>
       <c r="R13" s="6">
         <f>VLOOKUP($A13,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!R$2</f>
-        <v>5.3393428842461364E-2</v>
+        <v>0.55410513932065453</v>
       </c>
       <c r="S13" s="6">
         <f>VLOOKUP($A13,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!S$2</f>
-        <v>4.1733107799213684E-4</v>
+        <v>4.3309691871628421E-3</v>
       </c>
       <c r="T13" s="6">
         <f>VLOOKUP($A13,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!T$2</f>
-        <v>3.5356496296973582E-5</v>
+        <v>3.6692186157081467E-4</v>
       </c>
       <c r="U13" s="6">
         <f>VLOOKUP($A13,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!U$2</f>
-        <v>2.639856679162476E-5</v>
+        <v>2.7395845981530582E-4</v>
       </c>
       <c r="V13" s="6">
         <f>VLOOKUP($A13,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!V$2</f>
@@ -46445,7 +46445,7 @@
       </c>
       <c r="D14" s="6">
         <f>VLOOKUP($A14,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!D$2</f>
-        <v>5.9273109627868696E-6</v>
+        <v>6.361980433391241E-5</v>
       </c>
       <c r="E14" s="6">
         <f>VLOOKUP($A14,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!E$2</f>
@@ -46465,55 +46465,55 @@
       </c>
       <c r="I14" s="6">
         <f>VLOOKUP($A14,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!I$2</f>
-        <v>3.4612615891012155E-3</v>
+        <v>3.7150874389686381E-2</v>
       </c>
       <c r="J14" s="6">
         <f>VLOOKUP($A14,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!J$2</f>
-        <v>7.197181270000913E-2</v>
+        <v>0.77249745631343136</v>
       </c>
       <c r="K14" s="6">
         <f>VLOOKUP($A14,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!K$2</f>
-        <v>0.19075266092164209</v>
+        <v>2.0474118938922921</v>
       </c>
       <c r="L14" s="6">
         <f>VLOOKUP($A14,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!L$2</f>
-        <v>0.239895286641675</v>
+        <v>2.5748760766206455</v>
       </c>
       <c r="M14" s="6">
         <f>VLOOKUP($A14,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!M$2</f>
-        <v>0.24800573548505064</v>
+        <v>2.6619282275395437</v>
       </c>
       <c r="N14" s="6">
         <f>VLOOKUP($A14,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!N$2</f>
-        <v>0.27139375057145471</v>
+        <v>2.9129595894669471</v>
       </c>
       <c r="O14" s="6">
         <f>VLOOKUP($A14,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!O$2</f>
-        <v>0.26436094907195751</v>
+        <v>2.8374741867056774</v>
       </c>
       <c r="P14" s="6">
         <f>VLOOKUP($A14,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!P$2</f>
-        <v>0.22222715927585254</v>
+        <v>2.3852381762274844</v>
       </c>
       <c r="Q14" s="6">
         <f>VLOOKUP($A14,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!Q$2</f>
-        <v>0.14222854827649262</v>
+        <v>1.5265864181676876</v>
       </c>
       <c r="R14" s="6">
         <f>VLOOKUP($A14,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!R$2</f>
-        <v>3.5595619228307569E-2</v>
+        <v>0.38205964638383466</v>
       </c>
       <c r="S14" s="6">
         <f>VLOOKUP($A14,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!S$2</f>
-        <v>2.7822071866142451E-4</v>
+        <v>2.9862357136326238E-3</v>
       </c>
       <c r="T14" s="6">
         <f>VLOOKUP($A14,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!T$2</f>
-        <v>2.3570997531315718E-5</v>
+        <v>2.529953735027887E-4</v>
       </c>
       <c r="U14" s="6">
         <f>VLOOKUP($A14,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!U$2</f>
-        <v>1.759904452774984E-5</v>
+        <v>1.8889641126451496E-4</v>
       </c>
       <c r="V14" s="6">
         <f>VLOOKUP($A14,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!V$2</f>
@@ -46546,7 +46546,7 @@
       </c>
       <c r="D15" s="6">
         <f>VLOOKUP($A15,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!D$2</f>
-        <v>2.4697129011611958E-6</v>
+        <v>2.7858361525098286E-5</v>
       </c>
       <c r="E15" s="6">
         <f>VLOOKUP($A15,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!E$2</f>
@@ -46566,55 +46566,55 @@
       </c>
       <c r="I15" s="6">
         <f>VLOOKUP($A15,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!I$2</f>
-        <v>1.4421923287921731E-3</v>
+        <v>1.6267929468775713E-2</v>
       </c>
       <c r="J15" s="6">
         <f>VLOOKUP($A15,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!J$2</f>
-        <v>2.9988255291670471E-2</v>
+        <v>0.33826751969004287</v>
       </c>
       <c r="K15" s="6">
         <f>VLOOKUP($A15,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!K$2</f>
-        <v>7.9480275384017543E-2</v>
+        <v>0.8965375063317178</v>
       </c>
       <c r="L15" s="6">
         <f>VLOOKUP($A15,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!L$2</f>
-        <v>9.9956369434031259E-2</v>
+        <v>1.1275078472158726</v>
       </c>
       <c r="M15" s="6">
         <f>VLOOKUP($A15,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!M$2</f>
-        <v>0.10333572311877111</v>
+        <v>1.1656269567797379</v>
       </c>
       <c r="N15" s="6">
         <f>VLOOKUP($A15,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!N$2</f>
-        <v>0.11308072940477279</v>
+        <v>1.275550627685837</v>
       </c>
       <c r="O15" s="6">
         <f>VLOOKUP($A15,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!O$2</f>
-        <v>0.11015039544664897</v>
+        <v>1.2424964606382003</v>
       </c>
       <c r="P15" s="6">
         <f>VLOOKUP($A15,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!P$2</f>
-        <v>9.25946496982719E-2</v>
+        <v>1.044467648596507</v>
       </c>
       <c r="Q15" s="6">
         <f>VLOOKUP($A15,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!Q$2</f>
-        <v>5.9261895115205264E-2</v>
+        <v>0.66847417689951538</v>
       </c>
       <c r="R15" s="6">
         <f>VLOOKUP($A15,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!R$2</f>
-        <v>1.4831508011794822E-2</v>
+        <v>0.16729941037304558</v>
       </c>
       <c r="S15" s="6">
         <f>VLOOKUP($A15,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!S$2</f>
-        <v>1.1592529944226023E-4</v>
+        <v>1.3076373777086952E-3</v>
       </c>
       <c r="T15" s="6">
         <f>VLOOKUP($A15,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!T$2</f>
-        <v>9.8212489713815493E-6</v>
+        <v>1.1078368839718387E-4</v>
       </c>
       <c r="U15" s="6">
         <f>VLOOKUP($A15,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!U$2</f>
-        <v>7.3329352198957667E-6</v>
+        <v>8.2715509280424239E-5</v>
       </c>
       <c r="V15" s="6">
         <f>VLOOKUP($A15,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!V$2</f>
@@ -46641,10 +46641,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B6A34B4-2389-47FB-B2B8-B4CBDDE497E7}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -46689,77 +46689,88 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4">
         <v>14</v>
       </c>
       <c r="C4" s="4">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>14</v>
+      <c r="B5">
+        <v>17</v>
       </c>
       <c r="C5" s="4">
-        <v>0</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>14</v>
+      <c r="B6">
+        <v>20</v>
       </c>
       <c r="C6" s="4">
-        <v>0</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>14</v>
+      <c r="B7">
+        <v>22</v>
       </c>
       <c r="C7" s="4">
-        <v>0</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>14</v>
+      <c r="B8">
+        <v>24</v>
       </c>
       <c r="C8" s="4">
-        <v>0</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>14</v>
+      <c r="B9">
+        <v>26</v>
       </c>
       <c r="C9" s="4">
-        <v>0</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>14</v>
+      <c r="B10">
+        <v>28</v>
       </c>
       <c r="C10" s="4">
-        <v>0</v>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>30</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.13</v>
       </c>
     </row>
   </sheetData>
@@ -47374,7 +47385,7 @@
       </c>
       <c r="C8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!C$3</f>
-        <v>3.4612704918032786E-5</v>
+        <v>3.5304959016393445E-5</v>
       </c>
       <c r="D8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!D$3</f>
@@ -47398,51 +47409,51 @@
       </c>
       <c r="I8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!I$3</f>
-        <v>9.9320532786885234E-3</v>
+        <v>1.0130694344262295E-2</v>
       </c>
       <c r="J8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!J$3</f>
-        <v>0.19398216393442622</v>
+        <v>0.19786180721311475</v>
       </c>
       <c r="K8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!K$3</f>
-        <v>0.46145520491803282</v>
+        <v>0.47068430901639347</v>
       </c>
       <c r="L8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!L$3</f>
-        <v>0.61135364098360656</v>
+        <v>0.62358071380327873</v>
       </c>
       <c r="M8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!M$3</f>
-        <v>0.76751488524590161</v>
+        <v>0.78286518295081964</v>
       </c>
       <c r="N8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!N$3</f>
-        <v>0.91148434426229497</v>
+        <v>0.92971403114754092</v>
       </c>
       <c r="O8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!O$3</f>
-        <v>0.7606537090163934</v>
+        <v>0.77586678319672131</v>
       </c>
       <c r="P8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!P$3</f>
-        <v>0.52453274999999999</v>
+        <v>0.53502340500000001</v>
       </c>
       <c r="Q8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!Q$3</f>
-        <v>0.26193729180327868</v>
+        <v>0.26717603763934428</v>
       </c>
       <c r="R8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!R$3</f>
-        <v>5.5153573770491793E-2</v>
+        <v>5.6256645245901626E-2</v>
       </c>
       <c r="S8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!S$3</f>
-        <v>3.3324590163934416E-4</v>
+        <v>3.3991081967213102E-4</v>
       </c>
       <c r="T8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!T$3</f>
-        <v>1.47E-4</v>
+        <v>1.4993999999999999E-4</v>
       </c>
       <c r="U8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!U$3</f>
@@ -47475,7 +47486,7 @@
       </c>
       <c r="C9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!C$3</f>
-        <v>4.6727151639344265E-5</v>
+        <v>4.7073278688524591E-5</v>
       </c>
       <c r="D9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!D$3</f>
@@ -47499,51 +47510,51 @@
       </c>
       <c r="I9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!I$3</f>
-        <v>1.3408271926229507E-2</v>
+        <v>1.3507592459016393E-2</v>
       </c>
       <c r="J9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!J$3</f>
-        <v>0.26187592131147541</v>
+        <v>0.26381574295081966</v>
       </c>
       <c r="K9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!K$3</f>
-        <v>0.62296452663934432</v>
+        <v>0.62757907868852469</v>
       </c>
       <c r="L9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!L$3</f>
-        <v>0.82532741532786891</v>
+        <v>0.83144095173770494</v>
       </c>
       <c r="M9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!M$3</f>
-        <v>1.0361450950819673</v>
+        <v>1.0438202439344262</v>
       </c>
       <c r="N9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!N$3</f>
-        <v>1.2305038647540982</v>
+        <v>1.2396187081967212</v>
       </c>
       <c r="O9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!O$3</f>
-        <v>1.0268825071721313</v>
+        <v>1.0344890442622952</v>
       </c>
       <c r="P9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!P$3</f>
-        <v>0.70811921249999998</v>
+        <v>0.71336454000000005</v>
       </c>
       <c r="Q9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!Q$3</f>
-        <v>0.35361534393442623</v>
+        <v>0.35623471685245905</v>
       </c>
       <c r="R9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!R$3</f>
-        <v>7.4457324590163923E-2</v>
+        <v>7.500886032786884E-2</v>
       </c>
       <c r="S9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!S$3</f>
-        <v>4.4988196721311462E-4</v>
+        <v>4.5321442622950808E-4</v>
       </c>
       <c r="T9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!T$3</f>
-        <v>1.9845E-4</v>
+        <v>1.9992E-4</v>
       </c>
       <c r="U9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!U$3</f>
@@ -47576,7 +47587,7 @@
       </c>
       <c r="C10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!C$3</f>
-        <v>1.4710399590163934E-5</v>
+        <v>1.453733606557377E-5</v>
       </c>
       <c r="D10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!D$3</f>
@@ -47600,51 +47611,51 @@
       </c>
       <c r="I10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!I$3</f>
-        <v>4.221122643442622E-3</v>
+        <v>4.17146237704918E-3</v>
       </c>
       <c r="J10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!J$3</f>
-        <v>8.2442419672131145E-2</v>
+        <v>8.1472508852459005E-2</v>
       </c>
       <c r="K10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!K$3</f>
-        <v>0.19611846209016395</v>
+        <v>0.19381118606557379</v>
       </c>
       <c r="L10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!L$3</f>
-        <v>0.25982529741803279</v>
+        <v>0.25676852921311477</v>
       </c>
       <c r="M10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!M$3</f>
-        <v>0.32619382622950815</v>
+        <v>0.32235625180327865</v>
       </c>
       <c r="N10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!N$3</f>
-        <v>0.38738084631147535</v>
+        <v>0.38282342459016389</v>
       </c>
       <c r="O10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!O$3</f>
-        <v>0.32327782633196717</v>
+        <v>0.31947455778688522</v>
       </c>
       <c r="P10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!P$3</f>
-        <v>0.22292641874999999</v>
+        <v>0.22030375499999999</v>
       </c>
       <c r="Q10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!Q$3</f>
-        <v>0.11132334901639343</v>
+        <v>0.11001366255737705</v>
       </c>
       <c r="R10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!R$3</f>
-        <v>2.344026885245901E-2</v>
+        <v>2.3164500983606551E-2</v>
       </c>
       <c r="S10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!S$3</f>
-        <v>1.4162950819672127E-4</v>
+        <v>1.3996327868852454E-4</v>
       </c>
       <c r="T10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!T$3</f>
-        <v>6.2475000000000001E-5</v>
+        <v>6.1740000000000002E-5</v>
       </c>
       <c r="U10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!U$3</f>
@@ -47677,7 +47688,7 @@
       </c>
       <c r="C11" s="6">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!C$3</f>
-        <v>1.1249129098360656E-5</v>
+        <v>1.1733706967213115E-4</v>
       </c>
       <c r="D11" s="6">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!D$3</f>
@@ -47701,51 +47712,51 @@
       </c>
       <c r="I11" s="6">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!I$3</f>
-        <v>3.2279173155737701E-3</v>
+        <v>3.3669660614754099E-2</v>
       </c>
       <c r="J11" s="6">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!J$3</f>
-        <v>6.3044203278688524E-2</v>
+        <v>0.65759953573770491</v>
       </c>
       <c r="K11" s="6">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!K$3</f>
-        <v>0.14997294159836067</v>
+        <v>1.5643331446721314</v>
       </c>
       <c r="L11" s="6">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!L$3</f>
-        <v>0.19868993331967214</v>
+        <v>2.0724888429344261</v>
       </c>
       <c r="M11" s="6">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!M$3</f>
-        <v>0.24944233770491803</v>
+        <v>2.6018754609836066</v>
       </c>
       <c r="N11" s="6">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!N$3</f>
-        <v>0.29623241188524585</v>
+        <v>3.0899319270491801</v>
       </c>
       <c r="O11" s="6">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!O$3</f>
-        <v>0.24721245543032785</v>
+        <v>2.5786160735655739</v>
       </c>
       <c r="P11" s="6">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!P$3</f>
-        <v>0.17047314375</v>
+        <v>1.7781660225</v>
       </c>
       <c r="Q11" s="6">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!Q$3</f>
-        <v>8.5129619836065581E-2</v>
+        <v>0.88796741921311473</v>
       </c>
       <c r="R11" s="6">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!R$3</f>
-        <v>1.7924911475409835E-2</v>
+        <v>0.18697061508196719</v>
       </c>
       <c r="S11" s="6">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!S$3</f>
-        <v>1.0830491803278686E-4</v>
+        <v>1.1297036065573767E-3</v>
       </c>
       <c r="T11" s="6">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!T$3</f>
-        <v>4.7775000000000003E-5</v>
+        <v>4.9832999999999995E-4</v>
       </c>
       <c r="U11" s="6">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!U$3</f>
@@ -47778,7 +47789,7 @@
       </c>
       <c r="C12" s="6">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!C$3</f>
-        <v>1.9036987704918032E-5</v>
+        <v>2.0559946721311476E-4</v>
       </c>
       <c r="D12" s="6">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!D$3</f>
@@ -47802,51 +47813,51 @@
       </c>
       <c r="I12" s="6">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!I$3</f>
-        <v>5.4626293032786887E-3</v>
+        <v>5.8996396475409836E-2</v>
       </c>
       <c r="J12" s="6">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!J$3</f>
-        <v>0.10669019016393443</v>
+        <v>1.1522540537704917</v>
       </c>
       <c r="K12" s="6">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!K$3</f>
-        <v>0.25380036270491807</v>
+        <v>2.7410439172131151</v>
       </c>
       <c r="L12" s="6">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!L$3</f>
-        <v>0.33624450254098365</v>
+        <v>3.6314406274426232</v>
       </c>
       <c r="M12" s="6">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!M$3</f>
-        <v>0.42213318688524593</v>
+        <v>4.5590384183606556</v>
       </c>
       <c r="N12" s="6">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!N$3</f>
-        <v>0.50131638934426226</v>
+        <v>5.414217004918032</v>
       </c>
       <c r="O12" s="6">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!O$3</f>
-        <v>0.41835953995901642</v>
+        <v>4.5182830315573774</v>
       </c>
       <c r="P12" s="6">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!P$3</f>
-        <v>0.28849301250000003</v>
+        <v>3.115724535</v>
       </c>
       <c r="Q12" s="6">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!Q$3</f>
-        <v>0.1440655104918033</v>
+        <v>1.5559075133114755</v>
       </c>
       <c r="R12" s="6">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!R$3</f>
-        <v>3.0334465573770487E-2</v>
+        <v>0.32761222819672126</v>
       </c>
       <c r="S12" s="6">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!S$3</f>
-        <v>1.8328524590163929E-4</v>
+        <v>1.9794806557377046E-3</v>
       </c>
       <c r="T12" s="6">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!T$3</f>
-        <v>8.085E-5</v>
+        <v>8.7317999999999998E-4</v>
       </c>
       <c r="U12" s="6">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!U$3</f>
@@ -47879,7 +47890,7 @@
       </c>
       <c r="C13" s="6">
         <f>VLOOKUP($A13,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!C$3</f>
-        <v>1.5575717213114754E-5</v>
+        <v>1.616413319672131E-4</v>
       </c>
       <c r="D13" s="6">
         <f>VLOOKUP($A13,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!D$3</f>
@@ -47903,51 +47914,51 @@
       </c>
       <c r="I13" s="6">
         <f>VLOOKUP($A13,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!I$3</f>
-        <v>4.4694239754098355E-3</v>
+        <v>4.6382688811475406E-2</v>
       </c>
       <c r="J13" s="6">
         <f>VLOOKUP($A13,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!J$3</f>
-        <v>8.7291973770491804E-2</v>
+        <v>0.90589670557377044</v>
       </c>
       <c r="K13" s="6">
         <f>VLOOKUP($A13,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!K$3</f>
-        <v>0.20765484221311478</v>
+        <v>2.154995806967213</v>
       </c>
       <c r="L13" s="6">
         <f>VLOOKUP($A13,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!L$3</f>
-        <v>0.27510913844262297</v>
+        <v>2.8550215033934427</v>
       </c>
       <c r="M13" s="6">
         <f>VLOOKUP($A13,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!M$3</f>
-        <v>0.34538169836065574</v>
+        <v>3.5842945140983606</v>
       </c>
       <c r="N13" s="6">
         <f>VLOOKUP($A13,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!N$3</f>
-        <v>0.41016795491803276</v>
+        <v>4.2566318877049172</v>
       </c>
       <c r="O13" s="6">
         <f>VLOOKUP($A13,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!O$3</f>
-        <v>0.34229416905737703</v>
+        <v>3.5522528211065572</v>
       </c>
       <c r="P13" s="6">
         <f>VLOOKUP($A13,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!P$3</f>
-        <v>0.23603973750000001</v>
+        <v>2.4495679424999999</v>
       </c>
       <c r="Q13" s="6">
         <f>VLOOKUP($A13,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!Q$3</f>
-        <v>0.11787178131147541</v>
+        <v>1.2232471527213113</v>
       </c>
       <c r="R13" s="6">
         <f>VLOOKUP($A13,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!R$3</f>
-        <v>2.4819108196721309E-2</v>
+        <v>0.25756718950819668</v>
       </c>
       <c r="S13" s="6">
         <f>VLOOKUP($A13,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!S$3</f>
-        <v>1.4996065573770487E-4</v>
+        <v>1.5562583606557373E-3</v>
       </c>
       <c r="T13" s="6">
         <f>VLOOKUP($A13,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!T$3</f>
-        <v>6.6149999999999995E-5</v>
+        <v>6.8649E-4</v>
       </c>
       <c r="U13" s="6">
         <f>VLOOKUP($A13,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!U$3</f>
@@ -47980,7 +47991,7 @@
       </c>
       <c r="C14" s="6">
         <f>VLOOKUP($A14,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!C$3</f>
-        <v>1.0383811475409836E-5</v>
+        <v>1.1145290983606558E-4</v>
       </c>
       <c r="D14" s="6">
         <f>VLOOKUP($A14,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!D$3</f>
@@ -48004,51 +48015,51 @@
       </c>
       <c r="I14" s="6">
         <f>VLOOKUP($A14,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!I$3</f>
-        <v>2.979615983606557E-3</v>
+        <v>3.198121155737705E-2</v>
       </c>
       <c r="J14" s="6">
         <f>VLOOKUP($A14,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!J$3</f>
-        <v>5.8194649180327865E-2</v>
+        <v>0.62462256786885251</v>
       </c>
       <c r="K14" s="6">
         <f>VLOOKUP($A14,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!K$3</f>
-        <v>0.13843656147540984</v>
+        <v>1.4858857598360657</v>
       </c>
       <c r="L14" s="6">
         <f>VLOOKUP($A14,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!L$3</f>
-        <v>0.18340609229508195</v>
+        <v>1.9685587239672133</v>
       </c>
       <c r="M14" s="6">
         <f>VLOOKUP($A14,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!M$3</f>
-        <v>0.23025446557377047</v>
+        <v>2.4713979304918032</v>
       </c>
       <c r="N14" s="6">
         <f>VLOOKUP($A14,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!N$3</f>
-        <v>0.27344530327868849</v>
+        <v>2.9349795885245902</v>
       </c>
       <c r="O14" s="6">
         <f>VLOOKUP($A14,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!O$3</f>
-        <v>0.22819611270491802</v>
+        <v>2.4493049430327867</v>
       </c>
       <c r="P14" s="6">
         <f>VLOOKUP($A14,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!P$3</f>
-        <v>0.15735982499999998</v>
+        <v>1.6889954550000001</v>
       </c>
       <c r="Q14" s="6">
         <f>VLOOKUP($A14,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!Q$3</f>
-        <v>7.8581187540983602E-2</v>
+        <v>0.84343807960655737</v>
       </c>
       <c r="R14" s="6">
         <f>VLOOKUP($A14,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!R$3</f>
-        <v>1.6546072131147536E-2</v>
+        <v>0.17759450754098358</v>
       </c>
       <c r="S14" s="6">
         <f>VLOOKUP($A14,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!S$3</f>
-        <v>9.9973770491803239E-5</v>
+        <v>1.0730518032786884E-3</v>
       </c>
       <c r="T14" s="6">
         <f>VLOOKUP($A14,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!T$3</f>
-        <v>4.4099999999999995E-5</v>
+        <v>4.7333999999999999E-4</v>
       </c>
       <c r="U14" s="6">
         <f>VLOOKUP($A14,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!U$3</f>
@@ -48081,7 +48092,7 @@
       </c>
       <c r="C15" s="6">
         <f>VLOOKUP($A15,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!C$3</f>
-        <v>4.3265881147540983E-6</v>
+        <v>4.8803913934426226E-5</v>
       </c>
       <c r="D15" s="6">
         <f>VLOOKUP($A15,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!D$3</f>
@@ -48105,51 +48116,51 @@
       </c>
       <c r="I15" s="6">
         <f>VLOOKUP($A15,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!I$3</f>
-        <v>1.2415066598360654E-3</v>
+        <v>1.4004195122950817E-2</v>
       </c>
       <c r="J15" s="6">
         <f>VLOOKUP($A15,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!J$3</f>
-        <v>2.4247770491803277E-2</v>
+        <v>0.27351485114754093</v>
       </c>
       <c r="K15" s="6">
         <f>VLOOKUP($A15,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!K$3</f>
-        <v>5.7681900614754103E-2</v>
+        <v>0.65065183893442624</v>
       </c>
       <c r="L15" s="6">
         <f>VLOOKUP($A15,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!L$3</f>
-        <v>7.641920512295082E-2</v>
+        <v>0.86200863378688519</v>
       </c>
       <c r="M15" s="6">
         <f>VLOOKUP($A15,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!M$3</f>
-        <v>9.5939360655737702E-2</v>
+        <v>1.0821959881967211</v>
       </c>
       <c r="N15" s="6">
         <f>VLOOKUP($A15,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!N$3</f>
-        <v>0.11393554303278687</v>
+        <v>1.2851929254098358</v>
       </c>
       <c r="O15" s="6">
         <f>VLOOKUP($A15,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!O$3</f>
-        <v>9.5081713627049175E-2</v>
+        <v>1.0725217297131147</v>
       </c>
       <c r="P15" s="6">
         <f>VLOOKUP($A15,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!P$3</f>
-        <v>6.5566593749999999E-2</v>
+        <v>0.73959117749999992</v>
       </c>
       <c r="Q15" s="6">
         <f>VLOOKUP($A15,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!Q$3</f>
-        <v>3.2742161475409835E-2</v>
+        <v>0.3693315814426229</v>
       </c>
       <c r="R15" s="6">
         <f>VLOOKUP($A15,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!R$3</f>
-        <v>6.8941967213114741E-3</v>
+        <v>7.7766539016393424E-2</v>
       </c>
       <c r="S15" s="6">
         <f>VLOOKUP($A15,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!S$3</f>
-        <v>4.165573770491802E-5</v>
+        <v>4.6987672131147522E-4</v>
       </c>
       <c r="T15" s="6">
         <f>VLOOKUP($A15,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!T$3</f>
-        <v>1.8374999999999999E-5</v>
+        <v>2.0726999999999999E-4</v>
       </c>
       <c r="U15" s="6">
         <f>VLOOKUP($A15,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!U$3</f>
@@ -48809,47 +48820,47 @@
       </c>
       <c r="I8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!I$4</f>
-        <v>1.024310301189572E-2</v>
+        <v>1.0447965072133636E-2</v>
       </c>
       <c r="J8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!J$4</f>
-        <v>0.22186521924829156</v>
+        <v>0.2263025236332574</v>
       </c>
       <c r="K8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!K$4</f>
-        <v>0.52074370412553772</v>
+        <v>0.53115857820804846</v>
       </c>
       <c r="L8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!L$4</f>
-        <v>0.769133504176158</v>
+        <v>0.78451617425968112</v>
       </c>
       <c r="M8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!M$4</f>
-        <v>0.80424794514047049</v>
+        <v>0.82033290404327996</v>
       </c>
       <c r="N8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!N$4</f>
-        <v>0.71036845102505675</v>
+        <v>0.72457582004555787</v>
       </c>
       <c r="O8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!O$4</f>
-        <v>0.57007472475322696</v>
+        <v>0.58147621924829151</v>
       </c>
       <c r="P8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!P$4</f>
-        <v>0.45698721336370535</v>
+        <v>0.46612695763097944</v>
       </c>
       <c r="Q8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!Q$4</f>
-        <v>0.1954214502657555</v>
+        <v>0.1993298792710706</v>
       </c>
       <c r="R8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!R$4</f>
-        <v>3.4501010820045551E-2</v>
+        <v>3.5191031036446462E-2</v>
       </c>
       <c r="S8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!S$4</f>
-        <v>5.642875221462921E-5</v>
+        <v>5.7557327258921796E-5</v>
       </c>
       <c r="T8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!T$4</f>
@@ -48910,47 +48921,47 @@
       </c>
       <c r="I9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!I$4</f>
-        <v>1.3828189066059223E-2</v>
+        <v>1.3930620096178181E-2</v>
       </c>
       <c r="J9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!J$4</f>
-        <v>0.2995180459851936</v>
+        <v>0.30173669817767657</v>
       </c>
       <c r="K9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!K$4</f>
-        <v>0.70300400056947598</v>
+        <v>0.70821143761073135</v>
       </c>
       <c r="L9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!L$4</f>
-        <v>1.0383302306378133</v>
+        <v>1.046021565679575</v>
       </c>
       <c r="M9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!M$4</f>
-        <v>1.0857347259396353</v>
+        <v>1.09377720539104</v>
       </c>
       <c r="N9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!N$4</f>
-        <v>0.95899740888382667</v>
+        <v>0.96610109339407724</v>
       </c>
       <c r="O9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!O$4</f>
-        <v>0.76960087841685643</v>
+        <v>0.77530162566438876</v>
       </c>
       <c r="P9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!P$4</f>
-        <v>0.61693273804100224</v>
+        <v>0.62150261017463937</v>
       </c>
       <c r="Q9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!Q$4</f>
-        <v>0.26381895785876996</v>
+        <v>0.2657731723614275</v>
       </c>
       <c r="R9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!R$4</f>
-        <v>4.6576364607061493E-2</v>
+        <v>4.6921374715261956E-2</v>
       </c>
       <c r="S9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!S$4</f>
-        <v>7.6178815489749433E-5</v>
+        <v>7.6743103011895733E-5</v>
       </c>
       <c r="T9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!T$4</f>
@@ -49011,47 +49022,47 @@
       </c>
       <c r="I10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!I$4</f>
-        <v>4.3533187800556808E-3</v>
+        <v>4.3021032649962028E-3</v>
       </c>
       <c r="J10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!J$4</f>
-        <v>9.4292718180523913E-2</v>
+        <v>9.3183392084282446E-2</v>
       </c>
       <c r="K10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!K$4</f>
-        <v>0.22131607425335353</v>
+        <v>0.21871235573272582</v>
       </c>
       <c r="L10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!L$4</f>
-        <v>0.32688173927486713</v>
+        <v>0.32303607175398635</v>
       </c>
       <c r="M10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!M$4</f>
-        <v>0.34180537668469996</v>
+        <v>0.33778413695899762</v>
       </c>
       <c r="N10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!N$4</f>
-        <v>0.30190659168564909</v>
+        <v>0.29835474943052381</v>
       </c>
       <c r="O10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!O$4</f>
-        <v>0.24228175802012145</v>
+        <v>0.23943138439635531</v>
       </c>
       <c r="P10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!P$4</f>
-        <v>0.19421956567957477</v>
+        <v>0.19193462961275623</v>
       </c>
       <c r="Q10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!Q$4</f>
-        <v>8.3054116362946087E-2</v>
+        <v>8.2077009111617305E-2</v>
       </c>
       <c r="R10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!R$4</f>
-        <v>1.4662929598519359E-2</v>
+        <v>1.4490424544419131E-2</v>
       </c>
       <c r="S10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!S$4</f>
-        <v>2.3982219691217412E-5</v>
+        <v>2.3700075930144269E-5</v>
       </c>
       <c r="T10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!T$4</f>
@@ -49112,47 +49123,47 @@
       </c>
       <c r="I11" s="6">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!I$4</f>
-        <v>3.3290084788661091E-3</v>
+        <v>3.4724119210326497E-2</v>
       </c>
       <c r="J11" s="6">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!J$4</f>
-        <v>7.2106196255694754E-2</v>
+        <v>0.75212309325170845</v>
       </c>
       <c r="K11" s="6">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!K$4</f>
-        <v>0.16924170384079976</v>
+        <v>1.7653211569855729</v>
       </c>
       <c r="L11" s="6">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!L$4</f>
-        <v>0.24996838885725137</v>
+        <v>2.6073625791571757</v>
       </c>
       <c r="M11" s="6">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!M$4</f>
-        <v>0.26138058217065291</v>
+        <v>2.7264005340261952</v>
       </c>
       <c r="N11" s="6">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!N$4</f>
-        <v>0.23086974658314344</v>
+        <v>2.4081490489749426</v>
       </c>
       <c r="O11" s="6">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!O$4</f>
-        <v>0.18527428554479877</v>
+        <v>1.9325533169134395</v>
       </c>
       <c r="P11" s="6">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!P$4</f>
-        <v>0.14852084434320426</v>
+        <v>1.5491866533029612</v>
       </c>
       <c r="Q11" s="6">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!Q$4</f>
-        <v>6.3511971336370543E-2</v>
+        <v>0.66247871640091116</v>
       </c>
       <c r="R11" s="6">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!R$4</f>
-        <v>1.1212828516514804E-2</v>
+        <v>0.11695842667995442</v>
       </c>
       <c r="S11" s="6">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!S$4</f>
-        <v>1.8339344469754494E-5</v>
+        <v>1.9129347000759303E-4</v>
       </c>
       <c r="T11" s="6">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!T$4</f>
@@ -49213,47 +49224,47 @@
       </c>
       <c r="I12" s="6">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!I$4</f>
-        <v>5.6337066565426471E-3</v>
+        <v>6.0844031890660587E-2</v>
       </c>
       <c r="J12" s="6">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!J$4</f>
-        <v>0.12202587058656036</v>
+        <v>1.3178794023348519</v>
       </c>
       <c r="K12" s="6">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!K$4</f>
-        <v>0.28640903726904576</v>
+        <v>3.0932176025056943</v>
       </c>
       <c r="L12" s="6">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!L$4</f>
-        <v>0.42302342729688691</v>
+        <v>4.5686530148063786</v>
       </c>
       <c r="M12" s="6">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!M$4</f>
-        <v>0.44233636982725882</v>
+        <v>4.7772327941343953</v>
       </c>
       <c r="N12" s="6">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!N$4</f>
-        <v>0.39070264806378124</v>
+        <v>4.2195885990888371</v>
       </c>
       <c r="O12" s="6">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!O$4</f>
-        <v>0.31354109861427487</v>
+        <v>3.3862438650341682</v>
       </c>
       <c r="P12" s="6">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!P$4</f>
-        <v>0.25134296735003797</v>
+        <v>2.7145040473804101</v>
       </c>
       <c r="Q12" s="6">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!Q$4</f>
-        <v>0.10748179764616553</v>
+        <v>1.1608034145785877</v>
       </c>
       <c r="R12" s="6">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!R$4</f>
-        <v>1.8975555951025055E-2</v>
+        <v>0.20493600427107059</v>
       </c>
       <c r="S12" s="6">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!S$4</f>
-        <v>3.1035813718046066E-5</v>
+        <v>3.3518678815489753E-4</v>
       </c>
       <c r="T12" s="6">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!T$4</f>
@@ -49314,47 +49325,47 @@
       </c>
       <c r="I13" s="6">
         <f>VLOOKUP($A13,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!I$4</f>
-        <v>4.6093963553530742E-3</v>
+        <v>4.7835291065553016E-2</v>
       </c>
       <c r="J13" s="6">
         <f>VLOOKUP($A13,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!J$4</f>
-        <v>9.9839348661731206E-2</v>
+        <v>1.0361105738895215</v>
       </c>
       <c r="K13" s="6">
         <f>VLOOKUP($A13,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!K$4</f>
-        <v>0.23433466685649199</v>
+        <v>2.4318730982662613</v>
       </c>
       <c r="L13" s="6">
         <f>VLOOKUP($A13,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!L$4</f>
-        <v>0.34611007687927109</v>
+        <v>3.5918534645026576</v>
       </c>
       <c r="M13" s="6">
         <f>VLOOKUP($A13,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!M$4</f>
-        <v>0.36191157531321172</v>
+        <v>3.7558379038059972</v>
       </c>
       <c r="N13" s="6">
         <f>VLOOKUP($A13,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!N$4</f>
-        <v>0.31966580296127556</v>
+        <v>3.3174206662870152</v>
       </c>
       <c r="O13" s="6">
         <f>VLOOKUP($A13,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!O$4</f>
-        <v>0.25653362613895214</v>
+        <v>2.6622489645975698</v>
       </c>
       <c r="P13" s="6">
         <f>VLOOKUP($A13,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!P$4</f>
-        <v>0.2056442460136674</v>
+        <v>2.1341302864085039</v>
       </c>
       <c r="Q13" s="6">
         <f>VLOOKUP($A13,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!Q$4</f>
-        <v>8.793965261958997E-2</v>
+        <v>0.91261817274107815</v>
       </c>
       <c r="R13" s="6">
         <f>VLOOKUP($A13,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!R$4</f>
-        <v>1.5525454869020499E-2</v>
+        <v>0.16111972052961271</v>
       </c>
       <c r="S13" s="6">
         <f>VLOOKUP($A13,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!S$4</f>
-        <v>2.5392938496583144E-5</v>
+        <v>2.6352227284231843E-4</v>
       </c>
       <c r="T13" s="6">
         <f>VLOOKUP($A13,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!T$4</f>
@@ -49415,47 +49426,47 @@
       </c>
       <c r="I14" s="6">
         <f>VLOOKUP($A14,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!I$4</f>
-        <v>3.0729309035687161E-3</v>
+        <v>3.2982791698304224E-2</v>
       </c>
       <c r="J14" s="6">
         <f>VLOOKUP($A14,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!J$4</f>
-        <v>6.6559565774487461E-2</v>
+        <v>0.71440600597949888</v>
       </c>
       <c r="K14" s="6">
         <f>VLOOKUP($A14,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!K$4</f>
-        <v>0.15622311123766131</v>
+        <v>1.6767947272842316</v>
       </c>
       <c r="L14" s="6">
         <f>VLOOKUP($A14,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!L$4</f>
-        <v>0.23074005125284738</v>
+        <v>2.476609883447229</v>
       </c>
       <c r="M14" s="6">
         <f>VLOOKUP($A14,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!M$4</f>
-        <v>0.24127438354214115</v>
+        <v>2.5896783833523149</v>
       </c>
       <c r="N14" s="6">
         <f>VLOOKUP($A14,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!N$4</f>
-        <v>0.21311053530751703</v>
+        <v>2.2873864123006831</v>
       </c>
       <c r="O14" s="6">
         <f>VLOOKUP($A14,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!O$4</f>
-        <v>0.17102241742596808</v>
+        <v>1.8356406137053909</v>
       </c>
       <c r="P14" s="6">
         <f>VLOOKUP($A14,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!P$4</f>
-        <v>0.13709616400911159</v>
+        <v>1.4714988270311313</v>
       </c>
       <c r="Q14" s="6">
         <f>VLOOKUP($A14,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!Q$4</f>
-        <v>5.8626435079726646E-2</v>
+        <v>0.62925706985573271</v>
       </c>
       <c r="R14" s="6">
         <f>VLOOKUP($A14,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!R$4</f>
-        <v>1.0350303246013664E-2</v>
+        <v>0.11109325484054668</v>
       </c>
       <c r="S14" s="6">
         <f>VLOOKUP($A14,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!S$4</f>
-        <v>1.6928625664388762E-5</v>
+        <v>1.8170058213110607E-4</v>
       </c>
       <c r="T14" s="6">
         <f>VLOOKUP($A14,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!T$4</f>
@@ -49516,47 +49527,47 @@
       </c>
       <c r="I15" s="6">
         <f>VLOOKUP($A15,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!I$4</f>
-        <v>1.2803878764869651E-3</v>
+        <v>1.4442775246772965E-2</v>
       </c>
       <c r="J15" s="6">
         <f>VLOOKUP($A15,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!J$4</f>
-        <v>2.7733152406036445E-2</v>
+        <v>0.3128299591400911</v>
       </c>
       <c r="K15" s="6">
         <f>VLOOKUP($A15,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!K$4</f>
-        <v>6.5092963015692215E-2</v>
+        <v>0.73424862281700809</v>
       </c>
       <c r="L15" s="6">
         <f>VLOOKUP($A15,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!L$4</f>
-        <v>9.614168802201975E-2</v>
+        <v>1.0844782408883826</v>
       </c>
       <c r="M15" s="6">
         <f>VLOOKUP($A15,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!M$4</f>
-        <v>0.10053099314255881</v>
+        <v>1.1339896026480634</v>
       </c>
       <c r="N15" s="6">
         <f>VLOOKUP($A15,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!N$4</f>
-        <v>8.8796056378132093E-2</v>
+        <v>1.0016195159453301</v>
       </c>
       <c r="O15" s="6">
         <f>VLOOKUP($A15,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!O$4</f>
-        <v>7.125934059415337E-2</v>
+        <v>0.80380536190204999</v>
       </c>
       <c r="P15" s="6">
         <f>VLOOKUP($A15,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!P$4</f>
-        <v>5.7123401670463168E-2</v>
+        <v>0.64435197084282447</v>
       </c>
       <c r="Q15" s="6">
         <f>VLOOKUP($A15,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!Q$4</f>
-        <v>2.4427681283219437E-2</v>
+        <v>0.27554424487471524</v>
       </c>
       <c r="R15" s="6">
         <f>VLOOKUP($A15,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!R$4</f>
-        <v>4.3126263525056939E-3</v>
+        <v>4.8646425256264225E-2</v>
       </c>
       <c r="S15" s="6">
         <f>VLOOKUP($A15,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!S$4</f>
-        <v>7.0535940268286513E-6</v>
+        <v>7.9564540622627177E-5</v>
       </c>
       <c r="T15" s="6">
         <f>VLOOKUP($A15,'RES installed'!$A$2:$C$11,3,FALSE)*'[1]Profiles, RES, Summer'!T$4</f>
@@ -53106,7 +53117,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E19C606D-14A0-4449-AAD9-54A4EEFED4C4}">
   <dimension ref="A1:Y15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15:Y15"/>
     </sheetView>
   </sheetViews>

--- a/data/HR1/A_KPC_35_2/A_KPC_35_2_2030.xlsx
+++ b/data/HR1/A_KPC_35_2/A_KPC_35_2_2030.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\HR1\A_KPC_35_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF2D183A-0D7B-428A-BDB2-EE2CDF03B7C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01257694-AD57-4C43-B748-14B75E1C65A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67080" yWindow="-12390" windowWidth="29040" windowHeight="17640" tabRatio="722" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39885" yWindow="-5190" windowWidth="17280" windowHeight="8970" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -13646,7 +13646,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -46643,7 +46643,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B6A34B4-2389-47FB-B2B8-B4CBDDE497E7}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
